--- a/my_primary_data/1조_wbs.xlsx
+++ b/my_primary_data/1조_wbs.xlsx
@@ -20,7 +20,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">예시!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2047,6 +2046,87 @@
     <xf numFmtId="10" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2056,6 +2136,42 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2063,123 +2179,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2491,11 +2490,11 @@
   </sheetPr>
   <dimension ref="A1:AP147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="U80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R16" sqref="R16"/>
+      <selection pane="bottomRight" activeCell="AR89" sqref="AR89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2506,81 +2505,81 @@
     <col min="4" max="4" width="22.4140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="6.75" style="57" customWidth="1"/>
     <col min="6" max="6" width="9.9140625" style="1" customWidth="1"/>
-    <col min="7" max="41" width="5.75" style="1" customWidth="1"/>
+    <col min="7" max="41" width="6.9140625" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="83"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="91" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="85" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="72" t="s">
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="72" t="s">
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="72" t="s">
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="72" t="s">
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="102" t="s">
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="103"/>
-      <c r="AI1" s="103"/>
-      <c r="AJ1" s="104"/>
-      <c r="AK1" s="69" t="s">
+      <c r="AG1" s="100"/>
+      <c r="AH1" s="100"/>
+      <c r="AI1" s="100"/>
+      <c r="AJ1" s="101"/>
+      <c r="AK1" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="70"/>
-      <c r="AM1" s="70"/>
-      <c r="AN1" s="70"/>
-      <c r="AO1" s="71"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="92"/>
     </row>
     <row r="2" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="92"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
@@ -2691,11 +2690,11 @@
       </c>
     </row>
     <row r="3" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="92"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="12" t="s">
         <v>1</v>
       </c>
@@ -2842,11 +2841,11 @@
       <c r="AP3" s="16"/>
     </row>
     <row r="4" spans="1:42" s="7" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="81"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="93"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="18" t="s">
         <v>2</v>
       </c>
@@ -2996,41 +2995,41 @@
       <c r="A5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="96" t="s">
         <v>279</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="38"/>
-      <c r="F5" s="94">
+      <c r="F5" s="61">
         <f>SUM(F6+F9+F15+F20+F26+F75+F124+F126)</f>
         <v>1</v>
       </c>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="95"/>
-      <c r="X5" s="95"/>
-      <c r="Y5" s="95"/>
-      <c r="Z5" s="96"/>
-      <c r="AA5" s="101"/>
-      <c r="AB5" s="95"/>
-      <c r="AC5" s="95"/>
-      <c r="AD5" s="95"/>
-      <c r="AE5" s="96"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="68"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="68"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="63"/>
       <c r="AF5" s="40"/>
       <c r="AG5" s="41"/>
       <c r="AH5" s="41"/>
@@ -3046,13 +3045,13 @@
       <c r="A6" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="88" t="s">
         <v>271</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
       <c r="E6" s="34"/>
-      <c r="F6" s="97">
+      <c r="F6" s="64">
         <f>SUM(F7:F8)</f>
         <v>0.05</v>
       </c>
@@ -3097,14 +3096,14 @@
         <v>28</v>
       </c>
       <c r="B7" s="25"/>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="68"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="F7" s="97">
+      <c r="F7" s="64">
         <f>SUM(G7:AO7)</f>
         <v>2.5000000000000001E-2</v>
       </c>
@@ -3153,14 +3152,14 @@
         <v>29</v>
       </c>
       <c r="B8" s="25"/>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="D8" s="68"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="F8" s="97">
+      <c r="F8" s="64">
         <f>SUM(G8:AO8)</f>
         <v>2.5000000000000001E-2</v>
       </c>
@@ -3210,13 +3209,13 @@
       <c r="A9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
       <c r="E9" s="34"/>
-      <c r="F9" s="97">
+      <c r="F9" s="64">
         <f>SUM(F10:F14)</f>
         <v>0.05</v>
       </c>
@@ -3268,7 +3267,7 @@
       <c r="E10" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="F10" s="97">
+      <c r="F10" s="64">
         <f>SUM(G10:AO10)</f>
         <v>0.01</v>
       </c>
@@ -3317,14 +3316,14 @@
         <v>187</v>
       </c>
       <c r="B11" s="25"/>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="68"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="F11" s="97">
+      <c r="F11" s="64">
         <f t="shared" ref="F11:F14" si="33">SUM(G11:AO11)</f>
         <v>5.0000000000000001E-3</v>
       </c>
@@ -3380,7 +3379,7 @@
       <c r="E12" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="F12" s="97">
+      <c r="F12" s="64">
         <f t="shared" si="33"/>
         <v>5.0000000000000001E-3</v>
       </c>
@@ -3434,7 +3433,7 @@
       <c r="E13" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="F13" s="97">
+      <c r="F13" s="64">
         <f t="shared" si="33"/>
         <v>1.4999999999999999E-2</v>
       </c>
@@ -3492,7 +3491,7 @@
       <c r="E14" s="55" t="s">
         <v>280</v>
       </c>
-      <c r="F14" s="97">
+      <c r="F14" s="64">
         <f t="shared" si="33"/>
         <v>1.4999999999999999E-2</v>
       </c>
@@ -3542,13 +3541,13 @@
       <c r="A15" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="88" t="s">
         <v>273</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="55"/>
-      <c r="F15" s="97">
+      <c r="F15" s="64">
         <f>SUM(F16:F19)</f>
         <v>0.05</v>
       </c>
@@ -3593,14 +3592,14 @@
         <v>32</v>
       </c>
       <c r="B16" s="29"/>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="74"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="55" t="s">
         <v>280</v>
       </c>
-      <c r="F16" s="97">
+      <c r="F16" s="64">
         <f>SUM(G16:AO16)</f>
         <v>0.01</v>
       </c>
@@ -3647,14 +3646,14 @@
         <v>135</v>
       </c>
       <c r="B17" s="29"/>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="74"/>
+      <c r="D17" s="94"/>
       <c r="E17" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="F17" s="97">
+      <c r="F17" s="64">
         <f t="shared" ref="F17:F19" si="34">SUM(G17:AO17)</f>
         <v>0.01</v>
       </c>
@@ -3701,14 +3700,14 @@
         <v>270</v>
       </c>
       <c r="B18" s="25"/>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="93" t="s">
         <v>277</v>
       </c>
-      <c r="D18" s="68"/>
+      <c r="D18" s="95"/>
       <c r="E18" s="55" t="s">
         <v>280</v>
       </c>
-      <c r="F18" s="97">
+      <c r="F18" s="64">
         <f t="shared" si="34"/>
         <v>0.02</v>
       </c>
@@ -3722,7 +3721,7 @@
       <c r="J18" s="49">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K18" s="98">
+      <c r="K18" s="65">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="L18" s="44"/>
@@ -3761,14 +3760,14 @@
         <v>269</v>
       </c>
       <c r="B19" s="25"/>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="68"/>
+      <c r="D19" s="95"/>
       <c r="E19" s="55" t="s">
         <v>281</v>
       </c>
-      <c r="F19" s="97">
+      <c r="F19" s="64">
         <f t="shared" si="34"/>
         <v>0.01</v>
       </c>
@@ -3814,13 +3813,13 @@
       <c r="A20" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="103" t="s">
         <v>274</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="105"/>
       <c r="E20" s="55"/>
-      <c r="F20" s="97">
+      <c r="F20" s="64">
         <f>SUM(F21:F25)</f>
         <v>0.15</v>
       </c>
@@ -3865,14 +3864,14 @@
         <v>61</v>
       </c>
       <c r="B21" s="25"/>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="78"/>
+      <c r="D21" s="102"/>
       <c r="E21" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="97">
+      <c r="F21" s="64">
         <f>SUM(G21:AO21)</f>
         <v>0.03</v>
       </c>
@@ -3923,14 +3922,14 @@
         <v>62</v>
       </c>
       <c r="B22" s="25"/>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="68"/>
+      <c r="D22" s="95"/>
       <c r="E22" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="97">
+      <c r="F22" s="64">
         <f>SUM(G22:AO22)</f>
         <v>0.03</v>
       </c>
@@ -3988,7 +3987,7 @@
       <c r="E23" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="97">
+      <c r="F23" s="64">
         <f>SUM(G23:AO23)</f>
         <v>0.03</v>
       </c>
@@ -4046,7 +4045,7 @@
       <c r="E24" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="97">
+      <c r="F24" s="64">
         <f>SUM(G24:AO24)</f>
         <v>0.03</v>
       </c>
@@ -4104,7 +4103,7 @@
       <c r="E25" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="97">
+      <c r="F25" s="64">
         <f>SUM(G25:AO25)</f>
         <v>0.03</v>
       </c>
@@ -4154,13 +4153,13 @@
       <c r="A26" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="88" t="s">
         <v>276</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="90"/>
       <c r="E26" s="55"/>
-      <c r="F26" s="97">
+      <c r="F26" s="64">
         <f>SUM(F27:F74)</f>
         <v>0.29999999999999993</v>
       </c>
@@ -4216,7 +4215,7 @@
       <c r="E27" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="F27" s="97">
+      <c r="F27" s="64">
         <f>SUM(G27:AO27)</f>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -4276,7 +4275,7 @@
       <c r="E28" s="55" t="s">
         <v>287</v>
       </c>
-      <c r="F28" s="97">
+      <c r="F28" s="64">
         <f>SUM(G28:AO28)</f>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -4332,7 +4331,7 @@
       <c r="E29" s="55" t="s">
         <v>284</v>
       </c>
-      <c r="F29" s="97">
+      <c r="F29" s="64">
         <f>SUM(G29:AO29)</f>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -4388,7 +4387,7 @@
       <c r="E30" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="F30" s="97">
+      <c r="F30" s="64">
         <f>SUM(G30:AO30)</f>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -4444,7 +4443,7 @@
       <c r="E31" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="F31" s="97">
+      <c r="F31" s="64">
         <f t="shared" ref="F31:F32" si="35">SUM(G31:AO31)</f>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -4500,7 +4499,7 @@
       <c r="E32" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="F32" s="97">
+      <c r="F32" s="64">
         <f t="shared" si="35"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -4560,7 +4559,7 @@
       <c r="E33" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="F33" s="97">
+      <c r="F33" s="64">
         <f t="shared" ref="F33:F47" si="36">SUM(G33:AO33)</f>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -4616,7 +4615,7 @@
       <c r="E34" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="F34" s="97">
+      <c r="F34" s="64">
         <f t="shared" si="36"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -4672,7 +4671,7 @@
       <c r="E35" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="F35" s="97">
+      <c r="F35" s="64">
         <f t="shared" si="36"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -4732,7 +4731,7 @@
       <c r="E36" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="F36" s="97">
+      <c r="F36" s="64">
         <f t="shared" si="36"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -4792,7 +4791,7 @@
       <c r="E37" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="F37" s="97">
+      <c r="F37" s="64">
         <f t="shared" si="36"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -4848,7 +4847,7 @@
       <c r="E38" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="F38" s="97">
+      <c r="F38" s="64">
         <f t="shared" si="36"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -4904,7 +4903,7 @@
       <c r="E39" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="F39" s="97">
+      <c r="F39" s="64">
         <f t="shared" si="36"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -4960,7 +4959,7 @@
       <c r="E40" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="F40" s="97">
+      <c r="F40" s="64">
         <f t="shared" si="36"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -5016,7 +5015,7 @@
       <c r="E41" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="F41" s="97">
+      <c r="F41" s="64">
         <f t="shared" si="36"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -5072,7 +5071,7 @@
       <c r="E42" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="F42" s="97">
+      <c r="F42" s="64">
         <f t="shared" si="36"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -5132,7 +5131,7 @@
       <c r="E43" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="F43" s="97">
+      <c r="F43" s="64">
         <f t="shared" si="36"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -5188,7 +5187,7 @@
       <c r="E44" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="F44" s="97">
+      <c r="F44" s="64">
         <f t="shared" si="36"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -5244,7 +5243,7 @@
       <c r="E45" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="F45" s="97">
+      <c r="F45" s="64">
         <f t="shared" si="36"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -5300,7 +5299,7 @@
       <c r="E46" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="F46" s="97">
+      <c r="F46" s="64">
         <f t="shared" si="36"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -5356,7 +5355,7 @@
       <c r="E47" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="F47" s="97">
+      <c r="F47" s="64">
         <f t="shared" si="36"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -5412,7 +5411,7 @@
       <c r="E48" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="F48" s="97">
+      <c r="F48" s="64">
         <f>SUM(G48:AO48)</f>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -5472,7 +5471,7 @@
       <c r="E49" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="F49" s="97">
+      <c r="F49" s="64">
         <f>SUM(G49:AO49)</f>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -5529,7 +5528,7 @@
       <c r="E50" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="F50" s="97">
+      <c r="F50" s="64">
         <f>SUM(G50:AO50)</f>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -5590,7 +5589,7 @@
       <c r="E51" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="F51" s="97">
+      <c r="F51" s="64">
         <f>SUM(G51:AO51)</f>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -5647,7 +5646,7 @@
       <c r="E52" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="F52" s="97">
+      <c r="F52" s="64">
         <f t="shared" ref="F52:F74" si="37">SUM(G52:AO52)</f>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -5707,7 +5706,7 @@
       <c r="E53" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="F53" s="97">
+      <c r="F53" s="64">
         <f t="shared" si="37"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -5763,7 +5762,7 @@
       <c r="E54" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="F54" s="97">
+      <c r="F54" s="64">
         <f t="shared" si="37"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -5819,7 +5818,7 @@
       <c r="E55" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="F55" s="97">
+      <c r="F55" s="64">
         <f t="shared" si="37"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -5875,7 +5874,7 @@
       <c r="E56" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="F56" s="97">
+      <c r="F56" s="64">
         <f t="shared" si="37"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -5935,7 +5934,7 @@
       <c r="E57" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="F57" s="97">
+      <c r="F57" s="64">
         <f t="shared" si="37"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -5991,7 +5990,7 @@
       <c r="E58" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="F58" s="97">
+      <c r="F58" s="64">
         <f t="shared" si="37"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -6047,7 +6046,7 @@
       <c r="E59" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="F59" s="97">
+      <c r="F59" s="64">
         <f t="shared" si="37"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -6103,7 +6102,7 @@
       <c r="E60" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="F60" s="97">
+      <c r="F60" s="64">
         <f t="shared" si="37"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -6159,7 +6158,7 @@
       <c r="E61" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="F61" s="97">
+      <c r="F61" s="64">
         <f t="shared" si="37"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -6219,7 +6218,7 @@
       <c r="E62" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="F62" s="97">
+      <c r="F62" s="64">
         <f t="shared" si="37"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -6275,7 +6274,7 @@
       <c r="E63" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="F63" s="97">
+      <c r="F63" s="64">
         <f t="shared" si="37"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -6331,7 +6330,7 @@
       <c r="E64" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="F64" s="97">
+      <c r="F64" s="64">
         <f t="shared" si="37"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -6387,7 +6386,7 @@
       <c r="E65" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="F65" s="97">
+      <c r="F65" s="64">
         <f t="shared" si="37"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -6447,7 +6446,7 @@
       <c r="E66" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="F66" s="97">
+      <c r="F66" s="64">
         <f t="shared" si="37"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -6503,7 +6502,7 @@
       <c r="E67" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="F67" s="97">
+      <c r="F67" s="64">
         <f t="shared" si="37"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -6559,7 +6558,7 @@
       <c r="E68" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="F68" s="97">
+      <c r="F68" s="64">
         <f t="shared" si="37"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -6615,7 +6614,7 @@
       <c r="E69" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="F69" s="97">
+      <c r="F69" s="64">
         <f t="shared" si="37"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -6675,7 +6674,7 @@
       <c r="E70" s="55" t="s">
         <v>290</v>
       </c>
-      <c r="F70" s="97">
+      <c r="F70" s="64">
         <f t="shared" si="37"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -6731,7 +6730,7 @@
       <c r="E71" s="55" t="s">
         <v>290</v>
       </c>
-      <c r="F71" s="97">
+      <c r="F71" s="64">
         <f t="shared" si="37"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -6787,7 +6786,7 @@
       <c r="E72" s="55" t="s">
         <v>290</v>
       </c>
-      <c r="F72" s="97">
+      <c r="F72" s="64">
         <f t="shared" si="37"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -6847,7 +6846,7 @@
       <c r="E73" s="55" t="s">
         <v>290</v>
       </c>
-      <c r="F73" s="97">
+      <c r="F73" s="64">
         <f t="shared" si="37"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -6907,7 +6906,7 @@
       <c r="E74" s="55" t="s">
         <v>291</v>
       </c>
-      <c r="F74" s="97">
+      <c r="F74" s="64">
         <f t="shared" si="37"/>
         <v>6.2500000000000003E-3</v>
       </c>
@@ -6955,13 +6954,13 @@
       <c r="A75" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B75" s="61" t="s">
+      <c r="B75" s="88" t="s">
         <v>275</v>
       </c>
-      <c r="C75" s="62"/>
-      <c r="D75" s="63"/>
+      <c r="C75" s="89"/>
+      <c r="D75" s="90"/>
       <c r="E75" s="55"/>
-      <c r="F75" s="97">
+      <c r="F75" s="64">
         <f>SUM(F76:F123)</f>
         <v>0.30000000000000016</v>
       </c>
@@ -7017,22 +7016,22 @@
       <c r="E76" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="F76" s="97">
+      <c r="F76" s="64">
         <f>SUM(G76:AO76)</f>
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G76" s="99"/>
-      <c r="H76" s="99"/>
-      <c r="I76" s="99"/>
-      <c r="J76" s="99"/>
-      <c r="K76" s="100"/>
-      <c r="L76" s="97"/>
-      <c r="M76" s="99"/>
-      <c r="N76" s="99"/>
-      <c r="O76" s="99"/>
-      <c r="P76" s="100"/>
-      <c r="Q76" s="97"/>
-      <c r="R76" s="99"/>
+      <c r="G76" s="66"/>
+      <c r="H76" s="66"/>
+      <c r="I76" s="66"/>
+      <c r="J76" s="66"/>
+      <c r="K76" s="67"/>
+      <c r="L76" s="64"/>
+      <c r="M76" s="66"/>
+      <c r="N76" s="66"/>
+      <c r="O76" s="66"/>
+      <c r="P76" s="67"/>
+      <c r="Q76" s="64"/>
+      <c r="R76" s="66"/>
       <c r="S76" s="45"/>
       <c r="T76" s="45"/>
       <c r="U76" s="46"/>
@@ -7077,7 +7076,7 @@
       <c r="E77" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="F77" s="97">
+      <c r="F77" s="64">
         <f t="shared" ref="F77:F123" si="38">SUM(G77:AO77)</f>
         <v>6.9999999999999993E-3</v>
       </c>
@@ -7137,7 +7136,7 @@
       <c r="E78" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="F78" s="97">
+      <c r="F78" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -7197,7 +7196,7 @@
       <c r="E79" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="F79" s="97">
+      <c r="F79" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -7257,7 +7256,7 @@
       <c r="E80" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="F80" s="97">
+      <c r="F80" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -7317,7 +7316,7 @@
       <c r="E81" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="F81" s="97">
+      <c r="F81" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -7381,7 +7380,7 @@
       <c r="E82" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="F82" s="97">
+      <c r="F82" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -7441,7 +7440,7 @@
       <c r="E83" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="F83" s="97">
+      <c r="F83" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -7501,7 +7500,7 @@
       <c r="E84" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="F84" s="97">
+      <c r="F84" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -7565,7 +7564,7 @@
       <c r="E85" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="F85" s="97">
+      <c r="F85" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -7629,7 +7628,7 @@
       <c r="E86" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="F86" s="97">
+      <c r="F86" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -7689,7 +7688,7 @@
       <c r="E87" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="F87" s="97">
+      <c r="F87" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -7749,7 +7748,7 @@
       <c r="E88" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="F88" s="97">
+      <c r="F88" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -7809,7 +7808,7 @@
       <c r="E89" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="F89" s="97">
+      <c r="F89" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -7869,7 +7868,7 @@
       <c r="E90" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="F90" s="97">
+      <c r="F90" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -7929,7 +7928,7 @@
       <c r="E91" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="F91" s="97">
+      <c r="F91" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -7993,7 +7992,7 @@
       <c r="E92" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="F92" s="97">
+      <c r="F92" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -8053,7 +8052,7 @@
       <c r="E93" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="F93" s="97">
+      <c r="F93" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -8113,7 +8112,7 @@
       <c r="E94" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="F94" s="97">
+      <c r="F94" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -8173,7 +8172,7 @@
       <c r="E95" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="F95" s="97">
+      <c r="F95" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -8233,7 +8232,7 @@
       <c r="E96" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="F96" s="97">
+      <c r="F96" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -8293,7 +8292,7 @@
       <c r="E97" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="F97" s="97">
+      <c r="F97" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -8357,7 +8356,7 @@
       <c r="E98" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="F98" s="97">
+      <c r="F98" s="64">
         <f t="shared" si="38"/>
         <v>8.0000000000000002E-3</v>
       </c>
@@ -8417,7 +8416,7 @@
       <c r="E99" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="F99" s="97">
+      <c r="F99" s="64">
         <f t="shared" si="38"/>
         <v>8.0000000000000002E-3</v>
       </c>
@@ -8481,7 +8480,7 @@
       <c r="E100" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="F100" s="97">
+      <c r="F100" s="64">
         <f t="shared" si="38"/>
         <v>8.0000000000000002E-3</v>
       </c>
@@ -8541,7 +8540,7 @@
       <c r="E101" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="F101" s="97">
+      <c r="F101" s="64">
         <f t="shared" si="38"/>
         <v>8.0000000000000002E-3</v>
       </c>
@@ -8605,7 +8604,7 @@
       <c r="E102" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="F102" s="97">
+      <c r="F102" s="64">
         <f t="shared" si="38"/>
         <v>8.0000000000000002E-3</v>
       </c>
@@ -8665,7 +8664,7 @@
       <c r="E103" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="F103" s="97">
+      <c r="F103" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -8725,7 +8724,7 @@
       <c r="E104" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="F104" s="97">
+      <c r="F104" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -8785,7 +8784,7 @@
       <c r="E105" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="F105" s="97">
+      <c r="F105" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -8849,7 +8848,7 @@
       <c r="E106" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="F106" s="97">
+      <c r="F106" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -8909,7 +8908,7 @@
       <c r="E107" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="F107" s="97">
+      <c r="F107" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -8969,7 +8968,7 @@
       <c r="E108" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="F108" s="97">
+      <c r="F108" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -9029,7 +9028,7 @@
       <c r="E109" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="F109" s="97">
+      <c r="F109" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -9089,7 +9088,7 @@
       <c r="E110" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="F110" s="97">
+      <c r="F110" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -9153,7 +9152,7 @@
       <c r="E111" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="F111" s="97">
+      <c r="F111" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -9213,7 +9212,7 @@
       <c r="E112" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="F112" s="97">
+      <c r="F112" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -9273,7 +9272,7 @@
       <c r="E113" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="F113" s="97">
+      <c r="F113" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -9333,7 +9332,7 @@
       <c r="E114" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="F114" s="97">
+      <c r="F114" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -9397,7 +9396,7 @@
       <c r="E115" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="F115" s="97">
+      <c r="F115" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -9457,7 +9456,7 @@
       <c r="E116" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="F116" s="97">
+      <c r="F116" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -9517,7 +9516,7 @@
       <c r="E117" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="F117" s="97">
+      <c r="F117" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -9577,7 +9576,7 @@
       <c r="E118" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="F118" s="97">
+      <c r="F118" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -9641,7 +9640,7 @@
       <c r="E119" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="F119" s="97">
+      <c r="F119" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -9701,7 +9700,7 @@
       <c r="E120" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="F120" s="97">
+      <c r="F120" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -9761,7 +9760,7 @@
       <c r="E121" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="F121" s="97">
+      <c r="F121" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -9825,7 +9824,7 @@
       <c r="E122" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="F122" s="97">
+      <c r="F122" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -9889,7 +9888,7 @@
       <c r="E123" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="F123" s="97">
+      <c r="F123" s="64">
         <f t="shared" si="38"/>
         <v>6.0000000000000001E-3</v>
       </c>
@@ -9937,13 +9936,13 @@
       <c r="A124" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="B124" s="61" t="s">
+      <c r="B124" s="88" t="s">
         <v>301</v>
       </c>
-      <c r="C124" s="62"/>
-      <c r="D124" s="63"/>
+      <c r="C124" s="89"/>
+      <c r="D124" s="90"/>
       <c r="E124" s="55"/>
-      <c r="F124" s="97">
+      <c r="F124" s="64">
         <f>SUM(F125)</f>
         <v>0.09</v>
       </c>
@@ -9995,7 +9994,7 @@
       <c r="E125" s="55" t="s">
         <v>298</v>
       </c>
-      <c r="F125" s="97">
+      <c r="F125" s="64">
         <f>SUM(G125:AO125)</f>
         <v>0.09</v>
       </c>
@@ -10028,7 +10027,7 @@
       <c r="AE125" s="46">
         <v>0.01</v>
       </c>
-      <c r="AF125" s="105">
+      <c r="AF125" s="69">
         <v>0.01</v>
       </c>
       <c r="AG125" s="47">
@@ -10057,13 +10056,13 @@
       <c r="A126" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="B126" s="61" t="s">
+      <c r="B126" s="88" t="s">
         <v>300</v>
       </c>
-      <c r="C126" s="62"/>
-      <c r="D126" s="63"/>
+      <c r="C126" s="89"/>
+      <c r="D126" s="90"/>
       <c r="E126" s="55"/>
-      <c r="F126" s="97">
+      <c r="F126" s="64">
         <f>SUM(F127)</f>
         <v>0.01</v>
       </c>
@@ -10115,7 +10114,7 @@
       <c r="E127" s="56" t="s">
         <v>299</v>
       </c>
-      <c r="F127" s="97">
+      <c r="F127" s="64">
         <f>SUM(G127:AO127)</f>
         <v>0.01</v>
       </c>
@@ -10282,13 +10281,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="B1:D4"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B75:D75"/>
     <mergeCell ref="B126:D126"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="L1:P1"/>
@@ -10305,11 +10302,13 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/my_primary_data/1조_wbs.xlsx
+++ b/my_primary_data/1조_wbs.xlsx
@@ -2073,6 +2073,69 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2082,15 +2145,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2126,60 +2180,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2491,10 +2491,10 @@
   <dimension ref="A1:AP147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="U80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AR89" sqref="AR89"/>
+      <selection pane="bottomRight" activeCell="U70" sqref="U70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2510,76 +2510,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="85" t="s">
+      <c r="C1" s="95"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="103" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="73" t="s">
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="73" t="s">
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="73" t="s">
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="73" t="s">
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="99" t="s">
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="100"/>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="100"/>
-      <c r="AJ1" s="101"/>
-      <c r="AK1" s="91" t="s">
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="88"/>
+      <c r="AI1" s="88"/>
+      <c r="AJ1" s="89"/>
+      <c r="AK1" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="74"/>
-      <c r="AM1" s="74"/>
-      <c r="AN1" s="74"/>
-      <c r="AO1" s="92"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
+      <c r="AN1" s="79"/>
+      <c r="AO1" s="80"/>
     </row>
     <row r="2" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="86"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="104"/>
       <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
@@ -2690,11 +2690,11 @@
       </c>
     </row>
     <row r="3" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="86"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="104"/>
       <c r="F3" s="12" t="s">
         <v>1</v>
       </c>
@@ -2841,11 +2841,11 @@
       <c r="AP3" s="16"/>
     </row>
     <row r="4" spans="1:42" s="7" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="87"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="18" t="s">
         <v>2</v>
       </c>
@@ -2995,11 +2995,11 @@
       <c r="A5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="84" t="s">
         <v>279</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="38"/>
       <c r="F5" s="61">
         <f>SUM(F6+F9+F15+F20+F26+F75+F124+F126)</f>
@@ -3045,11 +3045,11 @@
       <c r="A6" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="70" t="s">
         <v>271</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="34"/>
       <c r="F6" s="64">
         <f>SUM(F7:F8)</f>
@@ -3096,10 +3096,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="25"/>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="95"/>
+      <c r="D7" s="77"/>
       <c r="E7" s="34" t="s">
         <v>280</v>
       </c>
@@ -3152,10 +3152,10 @@
         <v>29</v>
       </c>
       <c r="B8" s="25"/>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="D8" s="95"/>
+      <c r="D8" s="77"/>
       <c r="E8" s="34" t="s">
         <v>281</v>
       </c>
@@ -3209,11 +3209,11 @@
       <c r="A9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="70" t="s">
         <v>272</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="72"/>
       <c r="E9" s="34"/>
       <c r="F9" s="64">
         <f>SUM(F10:F14)</f>
@@ -3316,10 +3316,10 @@
         <v>187</v>
       </c>
       <c r="B11" s="25"/>
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="95"/>
+      <c r="D11" s="77"/>
       <c r="E11" s="34" t="s">
         <v>281</v>
       </c>
@@ -3541,11 +3541,11 @@
       <c r="A15" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="70" t="s">
         <v>273</v>
       </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="90"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="55"/>
       <c r="F15" s="64">
         <f>SUM(F16:F19)</f>
@@ -3592,10 +3592,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="29"/>
-      <c r="C16" s="93" t="s">
+      <c r="C16" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="94"/>
+      <c r="D16" s="83"/>
       <c r="E16" s="55" t="s">
         <v>280</v>
       </c>
@@ -3646,10 +3646,10 @@
         <v>135</v>
       </c>
       <c r="B17" s="29"/>
-      <c r="C17" s="93" t="s">
+      <c r="C17" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="94"/>
+      <c r="D17" s="83"/>
       <c r="E17" s="55" t="s">
         <v>281</v>
       </c>
@@ -3700,10 +3700,10 @@
         <v>270</v>
       </c>
       <c r="B18" s="25"/>
-      <c r="C18" s="93" t="s">
+      <c r="C18" s="76" t="s">
         <v>277</v>
       </c>
-      <c r="D18" s="95"/>
+      <c r="D18" s="77"/>
       <c r="E18" s="55" t="s">
         <v>280</v>
       </c>
@@ -3760,10 +3760,10 @@
         <v>269</v>
       </c>
       <c r="B19" s="25"/>
-      <c r="C19" s="93" t="s">
+      <c r="C19" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="95"/>
+      <c r="D19" s="77"/>
       <c r="E19" s="55" t="s">
         <v>281</v>
       </c>
@@ -3813,11 +3813,11 @@
       <c r="A20" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="103" t="s">
+      <c r="B20" s="73" t="s">
         <v>274</v>
       </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="105"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="75"/>
       <c r="E20" s="55"/>
       <c r="F20" s="64">
         <f>SUM(F21:F25)</f>
@@ -3864,10 +3864,10 @@
         <v>61</v>
       </c>
       <c r="B21" s="25"/>
-      <c r="C21" s="93" t="s">
+      <c r="C21" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="102"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="55" t="s">
         <v>92</v>
       </c>
@@ -3922,10 +3922,10 @@
         <v>62</v>
       </c>
       <c r="B22" s="25"/>
-      <c r="C22" s="93" t="s">
+      <c r="C22" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="95"/>
+      <c r="D22" s="77"/>
       <c r="E22" s="55" t="s">
         <v>92</v>
       </c>
@@ -4153,11 +4153,11 @@
       <c r="A26" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="70" t="s">
         <v>276</v>
       </c>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="72"/>
       <c r="E26" s="55"/>
       <c r="F26" s="64">
         <f>SUM(F27:F74)</f>
@@ -4228,10 +4228,10 @@
       <c r="M27" s="45"/>
       <c r="N27" s="45"/>
       <c r="O27" s="45"/>
-      <c r="P27" s="46">
+      <c r="P27" s="65">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="Q27" s="44">
+      <c r="Q27" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="R27" s="45"/>
@@ -4288,10 +4288,10 @@
       <c r="M28" s="45"/>
       <c r="N28" s="45"/>
       <c r="O28" s="45"/>
-      <c r="P28" s="46">
+      <c r="P28" s="65">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="Q28" s="44">
+      <c r="Q28" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="R28" s="45"/>
@@ -4344,10 +4344,10 @@
       <c r="M29" s="45"/>
       <c r="N29" s="45"/>
       <c r="O29" s="45"/>
-      <c r="P29" s="46">
+      <c r="P29" s="65">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="Q29" s="44">
+      <c r="Q29" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="R29" s="45"/>
@@ -4400,10 +4400,10 @@
       <c r="M30" s="45"/>
       <c r="N30" s="45"/>
       <c r="O30" s="45"/>
-      <c r="P30" s="46">
+      <c r="P30" s="65">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="Q30" s="44">
+      <c r="Q30" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="R30" s="45"/>
@@ -4456,10 +4456,10 @@
       <c r="M31" s="45"/>
       <c r="N31" s="45"/>
       <c r="O31" s="45"/>
-      <c r="P31" s="46">
+      <c r="P31" s="65">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="Q31" s="44">
+      <c r="Q31" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="R31" s="45"/>
@@ -4512,10 +4512,10 @@
       <c r="M32" s="45"/>
       <c r="N32" s="45"/>
       <c r="O32" s="45"/>
-      <c r="P32" s="46">
+      <c r="P32" s="65">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="Q32" s="44">
+      <c r="Q32" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="R32" s="45"/>
@@ -4572,10 +4572,10 @@
       <c r="M33" s="45"/>
       <c r="N33" s="45"/>
       <c r="O33" s="45"/>
-      <c r="P33" s="46">
+      <c r="P33" s="65">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="Q33" s="44">
+      <c r="Q33" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="R33" s="45"/>
@@ -4629,10 +4629,10 @@
       <c r="N34" s="45"/>
       <c r="O34" s="45"/>
       <c r="P34" s="46"/>
-      <c r="Q34" s="44">
+      <c r="Q34" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="R34" s="45">
+      <c r="R34" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="S34" s="45"/>
@@ -4685,10 +4685,10 @@
       <c r="N35" s="45"/>
       <c r="O35" s="45"/>
       <c r="P35" s="46"/>
-      <c r="Q35" s="44">
+      <c r="Q35" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="R35" s="45">
+      <c r="R35" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="S35" s="45"/>
@@ -4745,10 +4745,10 @@
       <c r="N36" s="45"/>
       <c r="O36" s="45"/>
       <c r="P36" s="46"/>
-      <c r="Q36" s="44">
+      <c r="Q36" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="R36" s="45">
+      <c r="R36" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="S36" s="45"/>
@@ -4805,10 +4805,10 @@
       <c r="N37" s="45"/>
       <c r="O37" s="45"/>
       <c r="P37" s="46"/>
-      <c r="Q37" s="44">
+      <c r="Q37" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="R37" s="45">
+      <c r="R37" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="S37" s="45"/>
@@ -4861,10 +4861,10 @@
       <c r="N38" s="45"/>
       <c r="O38" s="45"/>
       <c r="P38" s="46"/>
-      <c r="Q38" s="44">
+      <c r="Q38" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="R38" s="45">
+      <c r="R38" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="S38" s="45"/>
@@ -4917,10 +4917,10 @@
       <c r="N39" s="45"/>
       <c r="O39" s="45"/>
       <c r="P39" s="46"/>
-      <c r="Q39" s="44">
+      <c r="Q39" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="R39" s="45">
+      <c r="R39" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="S39" s="45"/>
@@ -4973,10 +4973,10 @@
       <c r="N40" s="45"/>
       <c r="O40" s="45"/>
       <c r="P40" s="46"/>
-      <c r="Q40" s="44">
+      <c r="Q40" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="R40" s="45">
+      <c r="R40" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="S40" s="45"/>
@@ -5029,10 +5029,10 @@
       <c r="N41" s="45"/>
       <c r="O41" s="45"/>
       <c r="P41" s="46"/>
-      <c r="Q41" s="44">
+      <c r="Q41" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="R41" s="45">
+      <c r="R41" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="S41" s="45"/>
@@ -5085,10 +5085,10 @@
       <c r="N42" s="45"/>
       <c r="O42" s="45"/>
       <c r="P42" s="46"/>
-      <c r="Q42" s="44">
+      <c r="Q42" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="R42" s="45">
+      <c r="R42" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="S42" s="45"/>
@@ -5146,10 +5146,10 @@
       <c r="O43" s="45"/>
       <c r="P43" s="46"/>
       <c r="Q43" s="44"/>
-      <c r="R43" s="45">
+      <c r="R43" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="S43" s="45">
+      <c r="S43" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="T43" s="45"/>
@@ -5202,10 +5202,10 @@
       <c r="O44" s="45"/>
       <c r="P44" s="46"/>
       <c r="Q44" s="44"/>
-      <c r="R44" s="45">
+      <c r="R44" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="S44" s="45">
+      <c r="S44" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="T44" s="45"/>
@@ -5258,10 +5258,10 @@
       <c r="O45" s="45"/>
       <c r="P45" s="46"/>
       <c r="Q45" s="44"/>
-      <c r="R45" s="45">
+      <c r="R45" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="S45" s="45">
+      <c r="S45" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="T45" s="45"/>
@@ -5314,10 +5314,10 @@
       <c r="O46" s="45"/>
       <c r="P46" s="46"/>
       <c r="Q46" s="44"/>
-      <c r="R46" s="45">
+      <c r="R46" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="S46" s="45">
+      <c r="S46" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="T46" s="45"/>
@@ -5370,10 +5370,10 @@
       <c r="O47" s="45"/>
       <c r="P47" s="46"/>
       <c r="Q47" s="44"/>
-      <c r="R47" s="45">
+      <c r="R47" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="S47" s="45">
+      <c r="S47" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="T47" s="45"/>
@@ -5426,10 +5426,10 @@
       <c r="O48" s="45"/>
       <c r="P48" s="46"/>
       <c r="Q48" s="44"/>
-      <c r="R48" s="45">
+      <c r="R48" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="S48" s="45">
+      <c r="S48" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="T48" s="45"/>
@@ -5485,10 +5485,10 @@
       <c r="N49" s="45"/>
       <c r="O49" s="45"/>
       <c r="P49" s="46"/>
-      <c r="Q49" s="44">
+      <c r="Q49" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="R49" s="45">
+      <c r="R49" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="S49" s="45"/>
@@ -5542,10 +5542,10 @@
       <c r="N50" s="45"/>
       <c r="O50" s="45"/>
       <c r="P50" s="46"/>
-      <c r="Q50" s="44">
+      <c r="Q50" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="R50" s="45">
+      <c r="R50" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="S50" s="45"/>
@@ -5603,10 +5603,10 @@
       <c r="N51" s="45"/>
       <c r="O51" s="45"/>
       <c r="P51" s="46"/>
-      <c r="Q51" s="44">
+      <c r="Q51" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="R51" s="45">
+      <c r="R51" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="S51" s="45"/>
@@ -5660,10 +5660,10 @@
       <c r="N52" s="45"/>
       <c r="O52" s="45"/>
       <c r="P52" s="46"/>
-      <c r="Q52" s="44">
+      <c r="Q52" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="R52" s="45">
+      <c r="R52" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="S52" s="45"/>
@@ -5720,10 +5720,10 @@
       <c r="N53" s="45"/>
       <c r="O53" s="45"/>
       <c r="P53" s="46"/>
-      <c r="Q53" s="44">
+      <c r="Q53" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="R53" s="45">
+      <c r="R53" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="S53" s="45"/>
@@ -5776,10 +5776,10 @@
       <c r="N54" s="45"/>
       <c r="O54" s="45"/>
       <c r="P54" s="46"/>
-      <c r="Q54" s="44">
+      <c r="Q54" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="R54" s="45">
+      <c r="R54" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="S54" s="45"/>
@@ -5832,10 +5832,10 @@
       <c r="N55" s="45"/>
       <c r="O55" s="45"/>
       <c r="P55" s="46"/>
-      <c r="Q55" s="44">
+      <c r="Q55" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="R55" s="45">
+      <c r="R55" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="S55" s="45"/>
@@ -5888,10 +5888,10 @@
       <c r="N56" s="45"/>
       <c r="O56" s="45"/>
       <c r="P56" s="46"/>
-      <c r="Q56" s="44">
+      <c r="Q56" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="R56" s="45">
+      <c r="R56" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="S56" s="45"/>
@@ -5948,10 +5948,10 @@
       <c r="N57" s="45"/>
       <c r="O57" s="45"/>
       <c r="P57" s="46"/>
-      <c r="Q57" s="44">
+      <c r="Q57" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="R57" s="45">
+      <c r="R57" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="S57" s="45"/>
@@ -6004,10 +6004,10 @@
       <c r="N58" s="45"/>
       <c r="O58" s="45"/>
       <c r="P58" s="46"/>
-      <c r="Q58" s="44">
+      <c r="Q58" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="R58" s="45">
+      <c r="R58" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="S58" s="45"/>
@@ -6060,10 +6060,10 @@
       <c r="N59" s="45"/>
       <c r="O59" s="45"/>
       <c r="P59" s="46"/>
-      <c r="Q59" s="44">
+      <c r="Q59" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="R59" s="45">
+      <c r="R59" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="S59" s="45"/>
@@ -6116,10 +6116,10 @@
       <c r="N60" s="45"/>
       <c r="O60" s="45"/>
       <c r="P60" s="46"/>
-      <c r="Q60" s="44">
+      <c r="Q60" s="48">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="R60" s="45">
+      <c r="R60" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="S60" s="45"/>
@@ -6173,10 +6173,10 @@
       <c r="O61" s="45"/>
       <c r="P61" s="46"/>
       <c r="Q61" s="44"/>
-      <c r="R61" s="45">
+      <c r="R61" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="S61" s="45">
+      <c r="S61" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="T61" s="45"/>
@@ -6233,10 +6233,10 @@
       <c r="O62" s="45"/>
       <c r="P62" s="46"/>
       <c r="Q62" s="44"/>
-      <c r="R62" s="45">
+      <c r="R62" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="S62" s="45">
+      <c r="S62" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="T62" s="45"/>
@@ -6289,10 +6289,10 @@
       <c r="O63" s="45"/>
       <c r="P63" s="46"/>
       <c r="Q63" s="44"/>
-      <c r="R63" s="45">
+      <c r="R63" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="S63" s="45">
+      <c r="S63" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="T63" s="45"/>
@@ -6345,10 +6345,10 @@
       <c r="O64" s="45"/>
       <c r="P64" s="46"/>
       <c r="Q64" s="44"/>
-      <c r="R64" s="45">
+      <c r="R64" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="S64" s="45">
+      <c r="S64" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="T64" s="45"/>
@@ -6401,10 +6401,10 @@
       <c r="O65" s="45"/>
       <c r="P65" s="46"/>
       <c r="Q65" s="44"/>
-      <c r="R65" s="45">
+      <c r="R65" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="S65" s="45">
+      <c r="S65" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="T65" s="45"/>
@@ -6461,10 +6461,10 @@
       <c r="O66" s="45"/>
       <c r="P66" s="46"/>
       <c r="Q66" s="44"/>
-      <c r="R66" s="45">
+      <c r="R66" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="S66" s="45">
+      <c r="S66" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="T66" s="45"/>
@@ -6517,10 +6517,10 @@
       <c r="O67" s="45"/>
       <c r="P67" s="46"/>
       <c r="Q67" s="44"/>
-      <c r="R67" s="45">
+      <c r="R67" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="S67" s="45">
+      <c r="S67" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="T67" s="45"/>
@@ -6573,10 +6573,10 @@
       <c r="O68" s="45"/>
       <c r="P68" s="46"/>
       <c r="Q68" s="44"/>
-      <c r="R68" s="45">
+      <c r="R68" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="S68" s="45">
+      <c r="S68" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="T68" s="45"/>
@@ -6629,10 +6629,10 @@
       <c r="O69" s="45"/>
       <c r="P69" s="46"/>
       <c r="Q69" s="44"/>
-      <c r="R69" s="45">
+      <c r="R69" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="S69" s="45">
+      <c r="S69" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="T69" s="45"/>
@@ -6690,10 +6690,10 @@
       <c r="P70" s="46"/>
       <c r="Q70" s="44"/>
       <c r="R70" s="45"/>
-      <c r="S70" s="45">
+      <c r="S70" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="T70" s="45">
+      <c r="T70" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="U70" s="46"/>
@@ -6746,10 +6746,10 @@
       <c r="P71" s="46"/>
       <c r="Q71" s="44"/>
       <c r="R71" s="45"/>
-      <c r="S71" s="45">
+      <c r="S71" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="T71" s="45">
+      <c r="T71" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="U71" s="46"/>
@@ -6802,10 +6802,10 @@
       <c r="P72" s="46"/>
       <c r="Q72" s="44"/>
       <c r="R72" s="45"/>
-      <c r="S72" s="45">
+      <c r="S72" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="T72" s="45">
+      <c r="T72" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="U72" s="46"/>
@@ -6862,10 +6862,10 @@
       <c r="P73" s="46"/>
       <c r="Q73" s="44"/>
       <c r="R73" s="45"/>
-      <c r="S73" s="45">
+      <c r="S73" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="T73" s="45">
+      <c r="T73" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="U73" s="46"/>
@@ -6922,10 +6922,10 @@
       <c r="P74" s="46"/>
       <c r="Q74" s="44"/>
       <c r="R74" s="45"/>
-      <c r="S74" s="45">
+      <c r="S74" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
-      <c r="T74" s="45">
+      <c r="T74" s="49">
         <v>3.1250000000000002E-3</v>
       </c>
       <c r="U74" s="46"/>
@@ -6954,11 +6954,11 @@
       <c r="A75" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B75" s="88" t="s">
+      <c r="B75" s="70" t="s">
         <v>275</v>
       </c>
-      <c r="C75" s="89"/>
-      <c r="D75" s="90"/>
+      <c r="C75" s="71"/>
+      <c r="D75" s="72"/>
       <c r="E75" s="55"/>
       <c r="F75" s="64">
         <f>SUM(F76:F123)</f>
@@ -9936,11 +9936,11 @@
       <c r="A124" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="B124" s="88" t="s">
+      <c r="B124" s="70" t="s">
         <v>301</v>
       </c>
-      <c r="C124" s="89"/>
-      <c r="D124" s="90"/>
+      <c r="C124" s="71"/>
+      <c r="D124" s="72"/>
       <c r="E124" s="55"/>
       <c r="F124" s="64">
         <f>SUM(F125)</f>
@@ -10056,11 +10056,11 @@
       <c r="A126" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="B126" s="88" t="s">
+      <c r="B126" s="70" t="s">
         <v>300</v>
       </c>
-      <c r="C126" s="89"/>
-      <c r="D126" s="90"/>
+      <c r="C126" s="71"/>
+      <c r="D126" s="72"/>
       <c r="E126" s="55"/>
       <c r="F126" s="64">
         <f>SUM(F127)</f>
@@ -10281,11 +10281,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G1:K1"/>
     <mergeCell ref="B126:D126"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="L1:P1"/>
@@ -10302,13 +10304,11 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="B1:D4"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B75:D75"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/my_primary_data/1조_wbs.xlsx
+++ b/my_primary_data/1조_wbs.xlsx
@@ -1862,7 +1862,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2073,6 +2073,60 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2082,6 +2136,42 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2091,95 +2181,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2491,10 +2500,10 @@
   <dimension ref="A1:AP147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="U70" sqref="U70"/>
+      <selection pane="bottomRight" activeCell="AL120" sqref="AL120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2510,76 +2519,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="103" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="85" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="81" t="s">
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="81" t="s">
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="81" t="s">
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="81" t="s">
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="75"/>
+      <c r="AA1" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="87" t="s">
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="74"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="88"/>
-      <c r="AH1" s="88"/>
-      <c r="AI1" s="88"/>
-      <c r="AJ1" s="89"/>
-      <c r="AK1" s="78" t="s">
+      <c r="AG1" s="100"/>
+      <c r="AH1" s="100"/>
+      <c r="AI1" s="100"/>
+      <c r="AJ1" s="101"/>
+      <c r="AK1" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
-      <c r="AN1" s="79"/>
-      <c r="AO1" s="80"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="74"/>
+      <c r="AN1" s="74"/>
+      <c r="AO1" s="92"/>
     </row>
     <row r="2" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="104"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
@@ -2690,11 +2699,11 @@
       </c>
     </row>
     <row r="3" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="92"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="104"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="12" t="s">
         <v>1</v>
       </c>
@@ -2841,11 +2850,11 @@
       <c r="AP3" s="16"/>
     </row>
     <row r="4" spans="1:42" s="7" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="93"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="105"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="18" t="s">
         <v>2</v>
       </c>
@@ -2995,11 +3004,11 @@
       <c r="A5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="96" t="s">
         <v>279</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="86"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
       <c r="E5" s="38"/>
       <c r="F5" s="61">
         <f>SUM(F6+F9+F15+F20+F26+F75+F124+F126)</f>
@@ -3045,11 +3054,11 @@
       <c r="A6" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="88" t="s">
         <v>271</v>
       </c>
-      <c r="C6" s="71"/>
-      <c r="D6" s="72"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="90"/>
       <c r="E6" s="34"/>
       <c r="F6" s="64">
         <f>SUM(F7:F8)</f>
@@ -3096,10 +3105,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="25"/>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="77"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="34" t="s">
         <v>280</v>
       </c>
@@ -3152,10 +3161,10 @@
         <v>29</v>
       </c>
       <c r="B8" s="25"/>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="93" t="s">
         <v>278</v>
       </c>
-      <c r="D8" s="77"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="34" t="s">
         <v>281</v>
       </c>
@@ -3209,11 +3218,11 @@
       <c r="A9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="88" t="s">
         <v>272</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="90"/>
       <c r="E9" s="34"/>
       <c r="F9" s="64">
         <f>SUM(F10:F14)</f>
@@ -3316,10 +3325,10 @@
         <v>187</v>
       </c>
       <c r="B11" s="25"/>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="77"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="34" t="s">
         <v>281</v>
       </c>
@@ -3541,11 +3550,11 @@
       <c r="A15" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="88" t="s">
         <v>273</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="55"/>
       <c r="F15" s="64">
         <f>SUM(F16:F19)</f>
@@ -3592,10 +3601,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="29"/>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="83"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="55" t="s">
         <v>280</v>
       </c>
@@ -3646,10 +3655,10 @@
         <v>135</v>
       </c>
       <c r="B17" s="29"/>
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="83"/>
+      <c r="D17" s="94"/>
       <c r="E17" s="55" t="s">
         <v>281</v>
       </c>
@@ -3700,10 +3709,10 @@
         <v>270</v>
       </c>
       <c r="B18" s="25"/>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="93" t="s">
         <v>277</v>
       </c>
-      <c r="D18" s="77"/>
+      <c r="D18" s="95"/>
       <c r="E18" s="55" t="s">
         <v>280</v>
       </c>
@@ -3760,10 +3769,10 @@
         <v>269</v>
       </c>
       <c r="B19" s="25"/>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="77"/>
+      <c r="D19" s="95"/>
       <c r="E19" s="55" t="s">
         <v>281</v>
       </c>
@@ -3813,11 +3822,11 @@
       <c r="A20" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="103" t="s">
         <v>274</v>
       </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="75"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="105"/>
       <c r="E20" s="55"/>
       <c r="F20" s="64">
         <f>SUM(F21:F25)</f>
@@ -3864,10 +3873,10 @@
         <v>61</v>
       </c>
       <c r="B21" s="25"/>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="90"/>
+      <c r="D21" s="102"/>
       <c r="E21" s="55" t="s">
         <v>92</v>
       </c>
@@ -3922,10 +3931,10 @@
         <v>62</v>
       </c>
       <c r="B22" s="25"/>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="77"/>
+      <c r="D22" s="95"/>
       <c r="E22" s="55" t="s">
         <v>92</v>
       </c>
@@ -4153,11 +4162,11 @@
       <c r="A26" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="88" t="s">
         <v>276</v>
       </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="72"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="90"/>
       <c r="E26" s="55"/>
       <c r="F26" s="64">
         <f>SUM(F27:F74)</f>
@@ -6954,11 +6963,11 @@
       <c r="A75" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B75" s="70" t="s">
+      <c r="B75" s="88" t="s">
         <v>275</v>
       </c>
-      <c r="C75" s="71"/>
-      <c r="D75" s="72"/>
+      <c r="C75" s="89"/>
+      <c r="D75" s="90"/>
       <c r="E75" s="55"/>
       <c r="F75" s="64">
         <f>SUM(F76:F123)</f>
@@ -7035,10 +7044,10 @@
       <c r="S76" s="45"/>
       <c r="T76" s="45"/>
       <c r="U76" s="46"/>
-      <c r="V76" s="60">
+      <c r="V76" s="106">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="W76" s="59">
+      <c r="W76" s="107">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="X76" s="59"/>
@@ -7095,16 +7104,16 @@
       <c r="S77" s="45"/>
       <c r="T77" s="45"/>
       <c r="U77" s="46"/>
-      <c r="V77" s="60">
+      <c r="V77" s="106">
         <v>2E-3</v>
       </c>
-      <c r="W77" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X77" s="59">
+      <c r="W77" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X77" s="107">
         <v>2E-3</v>
       </c>
-      <c r="Y77" s="59">
+      <c r="Y77" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="Z77" s="58"/>
@@ -7155,16 +7164,16 @@
       <c r="S78" s="45"/>
       <c r="T78" s="45"/>
       <c r="U78" s="46"/>
-      <c r="V78" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W78" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X78" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y78" s="59">
+      <c r="V78" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W78" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X78" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y78" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="Z78" s="58"/>
@@ -7215,16 +7224,16 @@
       <c r="S79" s="45"/>
       <c r="T79" s="45"/>
       <c r="U79" s="46"/>
-      <c r="V79" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W79" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X79" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y79" s="59">
+      <c r="V79" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W79" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X79" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y79" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="Z79" s="58"/>
@@ -7275,16 +7284,16 @@
       <c r="S80" s="45"/>
       <c r="T80" s="45"/>
       <c r="U80" s="46"/>
-      <c r="V80" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W80" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X80" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y80" s="59">
+      <c r="V80" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W80" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X80" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y80" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="Z80" s="58"/>
@@ -7335,16 +7344,16 @@
       <c r="S81" s="45"/>
       <c r="T81" s="45"/>
       <c r="U81" s="46"/>
-      <c r="V81" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W81" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X81" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y81" s="59">
+      <c r="V81" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W81" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X81" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y81" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="Z81" s="58"/>
@@ -7399,16 +7408,16 @@
       <c r="S82" s="45"/>
       <c r="T82" s="45"/>
       <c r="U82" s="46"/>
-      <c r="V82" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W82" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X82" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y82" s="59">
+      <c r="V82" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W82" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X82" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y82" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="Z82" s="58"/>
@@ -7459,16 +7468,16 @@
       <c r="S83" s="45"/>
       <c r="T83" s="45"/>
       <c r="U83" s="46"/>
-      <c r="V83" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W83" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X83" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y83" s="59">
+      <c r="V83" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W83" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X83" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y83" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="Z83" s="58"/>
@@ -7519,16 +7528,16 @@
       <c r="S84" s="45"/>
       <c r="T84" s="45"/>
       <c r="U84" s="46"/>
-      <c r="V84" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W84" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X84" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y84" s="59">
+      <c r="V84" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W84" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X84" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y84" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="Z84" s="58"/>
@@ -7584,16 +7593,16 @@
       <c r="T85" s="45"/>
       <c r="U85" s="46"/>
       <c r="V85" s="60"/>
-      <c r="W85" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X85" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y85" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Z85" s="58">
+      <c r="W85" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X85" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y85" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Z85" s="108">
         <v>1.5E-3</v>
       </c>
       <c r="AA85" s="60"/>
@@ -7648,16 +7657,16 @@
       <c r="T86" s="45"/>
       <c r="U86" s="46"/>
       <c r="V86" s="60"/>
-      <c r="W86" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X86" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y86" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Z86" s="58">
+      <c r="W86" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X86" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y86" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Z86" s="108">
         <v>1.5E-3</v>
       </c>
       <c r="AA86" s="60"/>
@@ -7708,16 +7717,16 @@
       <c r="T87" s="45"/>
       <c r="U87" s="46"/>
       <c r="V87" s="60"/>
-      <c r="W87" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X87" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y87" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Z87" s="58">
+      <c r="W87" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X87" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y87" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Z87" s="108">
         <v>1.5E-3</v>
       </c>
       <c r="AA87" s="60"/>
@@ -7768,16 +7777,16 @@
       <c r="T88" s="45"/>
       <c r="U88" s="46"/>
       <c r="V88" s="60"/>
-      <c r="W88" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X88" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y88" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Z88" s="58">
+      <c r="W88" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X88" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y88" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Z88" s="108">
         <v>1.5E-3</v>
       </c>
       <c r="AA88" s="60"/>
@@ -7828,16 +7837,16 @@
       <c r="T89" s="45"/>
       <c r="U89" s="46"/>
       <c r="V89" s="60"/>
-      <c r="W89" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X89" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y89" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Z89" s="58">
+      <c r="W89" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X89" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y89" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Z89" s="108">
         <v>1.5E-3</v>
       </c>
       <c r="AA89" s="60"/>
@@ -7888,16 +7897,16 @@
       <c r="T90" s="45"/>
       <c r="U90" s="46"/>
       <c r="V90" s="60"/>
-      <c r="W90" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X90" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y90" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Z90" s="58">
+      <c r="W90" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X90" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y90" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Z90" s="108">
         <v>1.5E-3</v>
       </c>
       <c r="AA90" s="60"/>
@@ -7948,16 +7957,16 @@
       <c r="T91" s="45"/>
       <c r="U91" s="46"/>
       <c r="V91" s="60"/>
-      <c r="W91" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X91" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y91" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Z91" s="58">
+      <c r="W91" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X91" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y91" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Z91" s="108">
         <v>1.5E-3</v>
       </c>
       <c r="AA91" s="60"/>
@@ -8014,16 +8023,16 @@
       <c r="V92" s="60"/>
       <c r="W92" s="59"/>
       <c r="X92" s="59"/>
-      <c r="Y92" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Z92" s="58">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA92" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB92" s="59">
+      <c r="Y92" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Z92" s="108">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA92" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB92" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="AC92" s="59"/>
@@ -8074,16 +8083,16 @@
       <c r="V93" s="60"/>
       <c r="W93" s="59"/>
       <c r="X93" s="59"/>
-      <c r="Y93" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Z93" s="58">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA93" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB93" s="59">
+      <c r="Y93" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Z93" s="108">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA93" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB93" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="AC93" s="59"/>
@@ -8134,16 +8143,16 @@
       <c r="V94" s="60"/>
       <c r="W94" s="59"/>
       <c r="X94" s="59"/>
-      <c r="Y94" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Z94" s="58">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA94" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB94" s="59">
+      <c r="Y94" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Z94" s="108">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA94" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB94" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="AC94" s="59"/>
@@ -8194,16 +8203,16 @@
       <c r="V95" s="60"/>
       <c r="W95" s="59"/>
       <c r="X95" s="59"/>
-      <c r="Y95" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Z95" s="58">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA95" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB95" s="59">
+      <c r="Y95" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Z95" s="108">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA95" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB95" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="AC95" s="59"/>
@@ -8254,16 +8263,16 @@
       <c r="V96" s="60"/>
       <c r="W96" s="59"/>
       <c r="X96" s="59"/>
-      <c r="Y96" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Z96" s="58">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA96" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB96" s="59">
+      <c r="Y96" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Z96" s="108">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA96" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB96" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="AC96" s="59"/>
@@ -8314,16 +8323,16 @@
       <c r="V97" s="60"/>
       <c r="W97" s="59"/>
       <c r="X97" s="59"/>
-      <c r="Y97" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Z97" s="58">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA97" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB97" s="59">
+      <c r="Y97" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Z97" s="108">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA97" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB97" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="AC97" s="59"/>
@@ -8375,16 +8384,16 @@
       <c r="S98" s="45"/>
       <c r="T98" s="45"/>
       <c r="U98" s="46"/>
-      <c r="V98" s="60">
+      <c r="V98" s="106">
         <v>2E-3</v>
       </c>
-      <c r="W98" s="59">
+      <c r="W98" s="107">
         <v>2E-3</v>
       </c>
-      <c r="X98" s="59">
+      <c r="X98" s="107">
         <v>2E-3</v>
       </c>
-      <c r="Y98" s="59">
+      <c r="Y98" s="107">
         <v>2E-3</v>
       </c>
       <c r="Z98" s="58"/>
@@ -8435,16 +8444,16 @@
       <c r="S99" s="45"/>
       <c r="T99" s="45"/>
       <c r="U99" s="46"/>
-      <c r="V99" s="60">
+      <c r="V99" s="106">
         <v>2E-3</v>
       </c>
-      <c r="W99" s="59">
+      <c r="W99" s="107">
         <v>2E-3</v>
       </c>
-      <c r="X99" s="59">
+      <c r="X99" s="107">
         <v>2E-3</v>
       </c>
-      <c r="Y99" s="59">
+      <c r="Y99" s="107">
         <v>2E-3</v>
       </c>
       <c r="Z99" s="58"/>
@@ -8499,16 +8508,16 @@
       <c r="S100" s="45"/>
       <c r="T100" s="45"/>
       <c r="U100" s="46"/>
-      <c r="V100" s="60">
+      <c r="V100" s="106">
         <v>2E-3</v>
       </c>
-      <c r="W100" s="59">
+      <c r="W100" s="107">
         <v>2E-3</v>
       </c>
-      <c r="X100" s="59">
+      <c r="X100" s="107">
         <v>2E-3</v>
       </c>
-      <c r="Y100" s="59">
+      <c r="Y100" s="107">
         <v>2E-3</v>
       </c>
       <c r="Z100" s="58"/>
@@ -8559,16 +8568,16 @@
       <c r="S101" s="45"/>
       <c r="T101" s="45"/>
       <c r="U101" s="46"/>
-      <c r="V101" s="60">
+      <c r="V101" s="106">
         <v>2E-3</v>
       </c>
-      <c r="W101" s="59">
+      <c r="W101" s="107">
         <v>2E-3</v>
       </c>
-      <c r="X101" s="59">
+      <c r="X101" s="107">
         <v>2E-3</v>
       </c>
-      <c r="Y101" s="59">
+      <c r="Y101" s="107">
         <v>2E-3</v>
       </c>
       <c r="Z101" s="58"/>
@@ -8623,16 +8632,16 @@
       <c r="S102" s="45"/>
       <c r="T102" s="45"/>
       <c r="U102" s="46"/>
-      <c r="V102" s="60">
+      <c r="V102" s="106">
         <v>2E-3</v>
       </c>
-      <c r="W102" s="59">
+      <c r="W102" s="107">
         <v>2E-3</v>
       </c>
-      <c r="X102" s="59">
+      <c r="X102" s="107">
         <v>2E-3</v>
       </c>
-      <c r="Y102" s="59">
+      <c r="Y102" s="107">
         <v>2E-3</v>
       </c>
       <c r="Z102" s="58"/>
@@ -8683,16 +8692,16 @@
       <c r="S103" s="45"/>
       <c r="T103" s="45"/>
       <c r="U103" s="46"/>
-      <c r="V103" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W103" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X103" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y103" s="59">
+      <c r="V103" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W103" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X103" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y103" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="Z103" s="58"/>
@@ -8743,16 +8752,16 @@
       <c r="S104" s="45"/>
       <c r="T104" s="45"/>
       <c r="U104" s="46"/>
-      <c r="V104" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W104" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X104" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y104" s="59">
+      <c r="V104" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W104" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X104" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y104" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="Z104" s="58"/>
@@ -8803,16 +8812,16 @@
       <c r="S105" s="45"/>
       <c r="T105" s="45"/>
       <c r="U105" s="46"/>
-      <c r="V105" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W105" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X105" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y105" s="59">
+      <c r="V105" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W105" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X105" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y105" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="Z105" s="58"/>
@@ -8867,16 +8876,16 @@
       <c r="S106" s="45"/>
       <c r="T106" s="45"/>
       <c r="U106" s="46"/>
-      <c r="V106" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W106" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X106" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y106" s="59">
+      <c r="V106" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W106" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X106" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y106" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="Z106" s="58"/>
@@ -8927,16 +8936,16 @@
       <c r="S107" s="45"/>
       <c r="T107" s="45"/>
       <c r="U107" s="46"/>
-      <c r="V107" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W107" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X107" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y107" s="59">
+      <c r="V107" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W107" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X107" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y107" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="Z107" s="58"/>
@@ -8987,16 +8996,16 @@
       <c r="S108" s="45"/>
       <c r="T108" s="45"/>
       <c r="U108" s="46"/>
-      <c r="V108" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W108" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X108" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y108" s="59">
+      <c r="V108" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W108" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X108" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y108" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="Z108" s="58"/>
@@ -9047,16 +9056,16 @@
       <c r="S109" s="45"/>
       <c r="T109" s="45"/>
       <c r="U109" s="46"/>
-      <c r="V109" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W109" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X109" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y109" s="59">
+      <c r="V109" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W109" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X109" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y109" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="Z109" s="58"/>
@@ -9107,16 +9116,16 @@
       <c r="S110" s="45"/>
       <c r="T110" s="45"/>
       <c r="U110" s="46"/>
-      <c r="V110" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W110" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X110" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y110" s="59">
+      <c r="V110" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W110" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X110" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y110" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="Z110" s="58"/>
@@ -9171,16 +9180,16 @@
       <c r="S111" s="45"/>
       <c r="T111" s="45"/>
       <c r="U111" s="46"/>
-      <c r="V111" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W111" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X111" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y111" s="59">
+      <c r="V111" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W111" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X111" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y111" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="Z111" s="58"/>
@@ -9231,16 +9240,16 @@
       <c r="S112" s="45"/>
       <c r="T112" s="45"/>
       <c r="U112" s="46"/>
-      <c r="V112" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W112" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X112" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y112" s="59">
+      <c r="V112" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W112" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X112" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y112" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="Z112" s="58"/>
@@ -9291,16 +9300,16 @@
       <c r="S113" s="45"/>
       <c r="T113" s="45"/>
       <c r="U113" s="46"/>
-      <c r="V113" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W113" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X113" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y113" s="59">
+      <c r="V113" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W113" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X113" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y113" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="Z113" s="58"/>
@@ -9351,16 +9360,16 @@
       <c r="S114" s="45"/>
       <c r="T114" s="45"/>
       <c r="U114" s="46"/>
-      <c r="V114" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W114" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X114" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y114" s="59">
+      <c r="V114" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W114" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X114" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y114" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="Z114" s="58"/>
@@ -9419,16 +9428,16 @@
       <c r="W115" s="59"/>
       <c r="X115" s="59"/>
       <c r="Y115" s="59"/>
-      <c r="Z115" s="58">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA115" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB115" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AC115" s="59">
+      <c r="Z115" s="108">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA115" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB115" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AC115" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="AD115" s="45"/>
@@ -9479,16 +9488,16 @@
       <c r="W116" s="59"/>
       <c r="X116" s="59"/>
       <c r="Y116" s="59"/>
-      <c r="Z116" s="58">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA116" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB116" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AC116" s="59">
+      <c r="Z116" s="108">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA116" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB116" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AC116" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="AD116" s="45"/>
@@ -9539,16 +9548,16 @@
       <c r="W117" s="59"/>
       <c r="X117" s="59"/>
       <c r="Y117" s="59"/>
-      <c r="Z117" s="58">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA117" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB117" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AC117" s="59">
+      <c r="Z117" s="108">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA117" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB117" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AC117" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="AD117" s="45"/>
@@ -9599,16 +9608,16 @@
       <c r="W118" s="59"/>
       <c r="X118" s="59"/>
       <c r="Y118" s="59"/>
-      <c r="Z118" s="58">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA118" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB118" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AC118" s="59">
+      <c r="Z118" s="108">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA118" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB118" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AC118" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="AD118" s="45"/>
@@ -9663,16 +9672,16 @@
       <c r="W119" s="59"/>
       <c r="X119" s="59"/>
       <c r="Y119" s="59"/>
-      <c r="Z119" s="58">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA119" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB119" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AC119" s="59">
+      <c r="Z119" s="108">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA119" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB119" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AC119" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="AD119" s="45"/>
@@ -9723,16 +9732,16 @@
       <c r="W120" s="59"/>
       <c r="X120" s="59"/>
       <c r="Y120" s="59"/>
-      <c r="Z120" s="58">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA120" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB120" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AC120" s="59">
+      <c r="Z120" s="108">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA120" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB120" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AC120" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="AD120" s="45"/>
@@ -9783,16 +9792,16 @@
       <c r="W121" s="59"/>
       <c r="X121" s="59"/>
       <c r="Y121" s="59"/>
-      <c r="Z121" s="58">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA121" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB121" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AC121" s="59">
+      <c r="Z121" s="108">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA121" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB121" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AC121" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="AD121" s="45"/>
@@ -9847,16 +9856,16 @@
       <c r="W122" s="59"/>
       <c r="X122" s="59"/>
       <c r="Y122" s="59"/>
-      <c r="Z122" s="58">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA122" s="60">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB122" s="59">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AC122" s="59">
+      <c r="Z122" s="108">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA122" s="106">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB122" s="107">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AC122" s="107">
         <v>1.5E-3</v>
       </c>
       <c r="AD122" s="45"/>
@@ -9911,10 +9920,10 @@
       <c r="W123" s="59"/>
       <c r="X123" s="59"/>
       <c r="Y123" s="59"/>
-      <c r="Z123" s="58">
+      <c r="Z123" s="108">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AA123" s="60">
+      <c r="AA123" s="106">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AB123" s="59"/>
@@ -9936,11 +9945,11 @@
       <c r="A124" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="B124" s="70" t="s">
+      <c r="B124" s="88" t="s">
         <v>301</v>
       </c>
-      <c r="C124" s="71"/>
-      <c r="D124" s="72"/>
+      <c r="C124" s="89"/>
+      <c r="D124" s="90"/>
       <c r="E124" s="55"/>
       <c r="F124" s="64">
         <f>SUM(F125)</f>
@@ -10056,11 +10065,11 @@
       <c r="A126" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="B126" s="70" t="s">
+      <c r="B126" s="88" t="s">
         <v>300</v>
       </c>
-      <c r="C126" s="71"/>
-      <c r="D126" s="72"/>
+      <c r="C126" s="89"/>
+      <c r="D126" s="90"/>
       <c r="E126" s="55"/>
       <c r="F126" s="64">
         <f>SUM(F127)</f>
@@ -10281,13 +10290,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="B1:D4"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B75:D75"/>
     <mergeCell ref="B126:D126"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="L1:P1"/>
@@ -10304,11 +10311,13 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/my_primary_data/1조_wbs.xlsx
+++ b/my_primary_data/1조_wbs.xlsx
@@ -1862,7 +1862,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2070,7 +2070,76 @@
     <xf numFmtId="176" fontId="6" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2082,15 +2151,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2127,67 +2187,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2499,11 +2502,11 @@
   </sheetPr>
   <dimension ref="A1:AP147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AL120" sqref="AL120"/>
+      <selection pane="bottomRight" activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2519,76 +2522,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="85" t="s">
+      <c r="C1" s="97"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="105" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="73" t="s">
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="74"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="73" t="s">
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="74"/>
-      <c r="S1" s="74"/>
-      <c r="T1" s="74"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="73" t="s">
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="74"/>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="73" t="s">
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="99" t="s">
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="84"/>
+      <c r="AF1" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="100"/>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="100"/>
-      <c r="AJ1" s="101"/>
-      <c r="AK1" s="91" t="s">
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="90"/>
+      <c r="AJ1" s="91"/>
+      <c r="AK1" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="74"/>
-      <c r="AM1" s="74"/>
-      <c r="AN1" s="74"/>
-      <c r="AO1" s="92"/>
+      <c r="AL1" s="81"/>
+      <c r="AM1" s="81"/>
+      <c r="AN1" s="81"/>
+      <c r="AO1" s="82"/>
     </row>
     <row r="2" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="86"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="106"/>
       <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
@@ -2699,11 +2702,11 @@
       </c>
     </row>
     <row r="3" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="86"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="106"/>
       <c r="F3" s="12" t="s">
         <v>1</v>
       </c>
@@ -2850,11 +2853,11 @@
       <c r="AP3" s="16"/>
     </row>
     <row r="4" spans="1:42" s="7" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="87"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="107"/>
       <c r="F4" s="18" t="s">
         <v>2</v>
       </c>
@@ -3004,11 +3007,11 @@
       <c r="A5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="86" t="s">
         <v>279</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="98"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="88"/>
       <c r="E5" s="38"/>
       <c r="F5" s="61">
         <f>SUM(F6+F9+F15+F20+F26+F75+F124+F126)</f>
@@ -3054,11 +3057,11 @@
       <c r="A6" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="72" t="s">
         <v>271</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="90"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="34"/>
       <c r="F6" s="64">
         <f>SUM(F7:F8)</f>
@@ -3105,10 +3108,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="25"/>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="95"/>
+      <c r="D7" s="79"/>
       <c r="E7" s="34" t="s">
         <v>280</v>
       </c>
@@ -3161,10 +3164,10 @@
         <v>29</v>
       </c>
       <c r="B8" s="25"/>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="78" t="s">
         <v>278</v>
       </c>
-      <c r="D8" s="95"/>
+      <c r="D8" s="79"/>
       <c r="E8" s="34" t="s">
         <v>281</v>
       </c>
@@ -3218,11 +3221,11 @@
       <c r="A9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="72" t="s">
         <v>272</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
       <c r="E9" s="34"/>
       <c r="F9" s="64">
         <f>SUM(F10:F14)</f>
@@ -3325,10 +3328,10 @@
         <v>187</v>
       </c>
       <c r="B11" s="25"/>
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="95"/>
+      <c r="D11" s="79"/>
       <c r="E11" s="34" t="s">
         <v>281</v>
       </c>
@@ -3550,11 +3553,11 @@
       <c r="A15" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="72" t="s">
         <v>273</v>
       </c>
-      <c r="C15" s="89"/>
-      <c r="D15" s="90"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
       <c r="E15" s="55"/>
       <c r="F15" s="64">
         <f>SUM(F16:F19)</f>
@@ -3601,10 +3604,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="29"/>
-      <c r="C16" s="93" t="s">
+      <c r="C16" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="94"/>
+      <c r="D16" s="85"/>
       <c r="E16" s="55" t="s">
         <v>280</v>
       </c>
@@ -3655,10 +3658,10 @@
         <v>135</v>
       </c>
       <c r="B17" s="29"/>
-      <c r="C17" s="93" t="s">
+      <c r="C17" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="94"/>
+      <c r="D17" s="85"/>
       <c r="E17" s="55" t="s">
         <v>281</v>
       </c>
@@ -3709,10 +3712,10 @@
         <v>270</v>
       </c>
       <c r="B18" s="25"/>
-      <c r="C18" s="93" t="s">
+      <c r="C18" s="78" t="s">
         <v>277</v>
       </c>
-      <c r="D18" s="95"/>
+      <c r="D18" s="79"/>
       <c r="E18" s="55" t="s">
         <v>280</v>
       </c>
@@ -3769,10 +3772,10 @@
         <v>269</v>
       </c>
       <c r="B19" s="25"/>
-      <c r="C19" s="93" t="s">
+      <c r="C19" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="95"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="55" t="s">
         <v>281</v>
       </c>
@@ -3822,11 +3825,11 @@
       <c r="A20" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="103" t="s">
+      <c r="B20" s="75" t="s">
         <v>274</v>
       </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="105"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="77"/>
       <c r="E20" s="55"/>
       <c r="F20" s="64">
         <f>SUM(F21:F25)</f>
@@ -3873,10 +3876,10 @@
         <v>61</v>
       </c>
       <c r="B21" s="25"/>
-      <c r="C21" s="93" t="s">
+      <c r="C21" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="102"/>
+      <c r="D21" s="92"/>
       <c r="E21" s="55" t="s">
         <v>92</v>
       </c>
@@ -3931,10 +3934,10 @@
         <v>62</v>
       </c>
       <c r="B22" s="25"/>
-      <c r="C22" s="93" t="s">
+      <c r="C22" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="95"/>
+      <c r="D22" s="79"/>
       <c r="E22" s="55" t="s">
         <v>92</v>
       </c>
@@ -4162,11 +4165,11 @@
       <c r="A26" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="72" t="s">
         <v>276</v>
       </c>
-      <c r="C26" s="89"/>
-      <c r="D26" s="90"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="74"/>
       <c r="E26" s="55"/>
       <c r="F26" s="64">
         <f>SUM(F27:F74)</f>
@@ -6963,11 +6966,11 @@
       <c r="A75" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B75" s="88" t="s">
+      <c r="B75" s="72" t="s">
         <v>275</v>
       </c>
-      <c r="C75" s="89"/>
-      <c r="D75" s="90"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="74"/>
       <c r="E75" s="55"/>
       <c r="F75" s="64">
         <f>SUM(F76:F123)</f>
@@ -7044,10 +7047,10 @@
       <c r="S76" s="45"/>
       <c r="T76" s="45"/>
       <c r="U76" s="46"/>
-      <c r="V76" s="106">
+      <c r="V76" s="69">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="W76" s="107">
+      <c r="W76" s="70">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="X76" s="59"/>
@@ -7104,16 +7107,16 @@
       <c r="S77" s="45"/>
       <c r="T77" s="45"/>
       <c r="U77" s="46"/>
-      <c r="V77" s="106">
+      <c r="V77" s="69">
         <v>2E-3</v>
       </c>
-      <c r="W77" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X77" s="107">
+      <c r="W77" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X77" s="70">
         <v>2E-3</v>
       </c>
-      <c r="Y77" s="107">
+      <c r="Y77" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="Z77" s="58"/>
@@ -7164,16 +7167,16 @@
       <c r="S78" s="45"/>
       <c r="T78" s="45"/>
       <c r="U78" s="46"/>
-      <c r="V78" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W78" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X78" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y78" s="107">
+      <c r="V78" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W78" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X78" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y78" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="Z78" s="58"/>
@@ -7224,16 +7227,16 @@
       <c r="S79" s="45"/>
       <c r="T79" s="45"/>
       <c r="U79" s="46"/>
-      <c r="V79" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W79" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X79" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y79" s="107">
+      <c r="V79" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W79" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X79" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y79" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="Z79" s="58"/>
@@ -7284,16 +7287,16 @@
       <c r="S80" s="45"/>
       <c r="T80" s="45"/>
       <c r="U80" s="46"/>
-      <c r="V80" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W80" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X80" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y80" s="107">
+      <c r="V80" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W80" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X80" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y80" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="Z80" s="58"/>
@@ -7344,16 +7347,16 @@
       <c r="S81" s="45"/>
       <c r="T81" s="45"/>
       <c r="U81" s="46"/>
-      <c r="V81" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W81" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X81" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y81" s="107">
+      <c r="V81" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W81" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X81" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y81" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="Z81" s="58"/>
@@ -7408,16 +7411,16 @@
       <c r="S82" s="45"/>
       <c r="T82" s="45"/>
       <c r="U82" s="46"/>
-      <c r="V82" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W82" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X82" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y82" s="107">
+      <c r="V82" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W82" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X82" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y82" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="Z82" s="58"/>
@@ -7468,16 +7471,16 @@
       <c r="S83" s="45"/>
       <c r="T83" s="45"/>
       <c r="U83" s="46"/>
-      <c r="V83" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W83" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X83" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y83" s="107">
+      <c r="V83" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W83" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X83" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y83" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="Z83" s="58"/>
@@ -7528,16 +7531,16 @@
       <c r="S84" s="45"/>
       <c r="T84" s="45"/>
       <c r="U84" s="46"/>
-      <c r="V84" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W84" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X84" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y84" s="107">
+      <c r="V84" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W84" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X84" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y84" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="Z84" s="58"/>
@@ -7593,16 +7596,16 @@
       <c r="T85" s="45"/>
       <c r="U85" s="46"/>
       <c r="V85" s="60"/>
-      <c r="W85" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X85" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y85" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Z85" s="108">
+      <c r="W85" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X85" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y85" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Z85" s="71">
         <v>1.5E-3</v>
       </c>
       <c r="AA85" s="60"/>
@@ -7657,16 +7660,16 @@
       <c r="T86" s="45"/>
       <c r="U86" s="46"/>
       <c r="V86" s="60"/>
-      <c r="W86" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X86" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y86" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Z86" s="108">
+      <c r="W86" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X86" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y86" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Z86" s="71">
         <v>1.5E-3</v>
       </c>
       <c r="AA86" s="60"/>
@@ -7717,16 +7720,16 @@
       <c r="T87" s="45"/>
       <c r="U87" s="46"/>
       <c r="V87" s="60"/>
-      <c r="W87" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X87" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y87" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Z87" s="108">
+      <c r="W87" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X87" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y87" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Z87" s="71">
         <v>1.5E-3</v>
       </c>
       <c r="AA87" s="60"/>
@@ -7777,16 +7780,16 @@
       <c r="T88" s="45"/>
       <c r="U88" s="46"/>
       <c r="V88" s="60"/>
-      <c r="W88" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X88" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y88" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Z88" s="108">
+      <c r="W88" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X88" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y88" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Z88" s="71">
         <v>1.5E-3</v>
       </c>
       <c r="AA88" s="60"/>
@@ -7837,16 +7840,16 @@
       <c r="T89" s="45"/>
       <c r="U89" s="46"/>
       <c r="V89" s="60"/>
-      <c r="W89" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X89" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y89" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Z89" s="108">
+      <c r="W89" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X89" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y89" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Z89" s="71">
         <v>1.5E-3</v>
       </c>
       <c r="AA89" s="60"/>
@@ -7897,16 +7900,16 @@
       <c r="T90" s="45"/>
       <c r="U90" s="46"/>
       <c r="V90" s="60"/>
-      <c r="W90" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X90" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y90" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Z90" s="108">
+      <c r="W90" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X90" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y90" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Z90" s="71">
         <v>1.5E-3</v>
       </c>
       <c r="AA90" s="60"/>
@@ -7957,16 +7960,16 @@
       <c r="T91" s="45"/>
       <c r="U91" s="46"/>
       <c r="V91" s="60"/>
-      <c r="W91" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X91" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y91" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Z91" s="108">
+      <c r="W91" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X91" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y91" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Z91" s="71">
         <v>1.5E-3</v>
       </c>
       <c r="AA91" s="60"/>
@@ -8023,16 +8026,16 @@
       <c r="V92" s="60"/>
       <c r="W92" s="59"/>
       <c r="X92" s="59"/>
-      <c r="Y92" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Z92" s="108">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA92" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB92" s="107">
+      <c r="Y92" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Z92" s="71">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA92" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB92" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="AC92" s="59"/>
@@ -8083,16 +8086,16 @@
       <c r="V93" s="60"/>
       <c r="W93" s="59"/>
       <c r="X93" s="59"/>
-      <c r="Y93" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Z93" s="108">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA93" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB93" s="107">
+      <c r="Y93" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Z93" s="71">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA93" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB93" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="AC93" s="59"/>
@@ -8143,16 +8146,16 @@
       <c r="V94" s="60"/>
       <c r="W94" s="59"/>
       <c r="X94" s="59"/>
-      <c r="Y94" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Z94" s="108">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA94" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB94" s="107">
+      <c r="Y94" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Z94" s="71">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA94" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB94" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="AC94" s="59"/>
@@ -8203,16 +8206,16 @@
       <c r="V95" s="60"/>
       <c r="W95" s="59"/>
       <c r="X95" s="59"/>
-      <c r="Y95" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Z95" s="108">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA95" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB95" s="107">
+      <c r="Y95" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Z95" s="71">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA95" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB95" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="AC95" s="59"/>
@@ -8263,16 +8266,16 @@
       <c r="V96" s="60"/>
       <c r="W96" s="59"/>
       <c r="X96" s="59"/>
-      <c r="Y96" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Z96" s="108">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA96" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB96" s="107">
+      <c r="Y96" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Z96" s="71">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA96" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB96" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="AC96" s="59"/>
@@ -8323,16 +8326,16 @@
       <c r="V97" s="60"/>
       <c r="W97" s="59"/>
       <c r="X97" s="59"/>
-      <c r="Y97" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Z97" s="108">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA97" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB97" s="107">
+      <c r="Y97" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Z97" s="71">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA97" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB97" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="AC97" s="59"/>
@@ -8384,16 +8387,16 @@
       <c r="S98" s="45"/>
       <c r="T98" s="45"/>
       <c r="U98" s="46"/>
-      <c r="V98" s="106">
+      <c r="V98" s="69">
         <v>2E-3</v>
       </c>
-      <c r="W98" s="107">
+      <c r="W98" s="70">
         <v>2E-3</v>
       </c>
-      <c r="X98" s="107">
+      <c r="X98" s="70">
         <v>2E-3</v>
       </c>
-      <c r="Y98" s="107">
+      <c r="Y98" s="70">
         <v>2E-3</v>
       </c>
       <c r="Z98" s="58"/>
@@ -8444,16 +8447,16 @@
       <c r="S99" s="45"/>
       <c r="T99" s="45"/>
       <c r="U99" s="46"/>
-      <c r="V99" s="106">
+      <c r="V99" s="69">
         <v>2E-3</v>
       </c>
-      <c r="W99" s="107">
+      <c r="W99" s="70">
         <v>2E-3</v>
       </c>
-      <c r="X99" s="107">
+      <c r="X99" s="70">
         <v>2E-3</v>
       </c>
-      <c r="Y99" s="107">
+      <c r="Y99" s="70">
         <v>2E-3</v>
       </c>
       <c r="Z99" s="58"/>
@@ -8508,16 +8511,16 @@
       <c r="S100" s="45"/>
       <c r="T100" s="45"/>
       <c r="U100" s="46"/>
-      <c r="V100" s="106">
+      <c r="V100" s="69">
         <v>2E-3</v>
       </c>
-      <c r="W100" s="107">
+      <c r="W100" s="70">
         <v>2E-3</v>
       </c>
-      <c r="X100" s="107">
+      <c r="X100" s="70">
         <v>2E-3</v>
       </c>
-      <c r="Y100" s="107">
+      <c r="Y100" s="70">
         <v>2E-3</v>
       </c>
       <c r="Z100" s="58"/>
@@ -8568,16 +8571,16 @@
       <c r="S101" s="45"/>
       <c r="T101" s="45"/>
       <c r="U101" s="46"/>
-      <c r="V101" s="106">
+      <c r="V101" s="69">
         <v>2E-3</v>
       </c>
-      <c r="W101" s="107">
+      <c r="W101" s="70">
         <v>2E-3</v>
       </c>
-      <c r="X101" s="107">
+      <c r="X101" s="70">
         <v>2E-3</v>
       </c>
-      <c r="Y101" s="107">
+      <c r="Y101" s="70">
         <v>2E-3</v>
       </c>
       <c r="Z101" s="58"/>
@@ -8632,16 +8635,16 @@
       <c r="S102" s="45"/>
       <c r="T102" s="45"/>
       <c r="U102" s="46"/>
-      <c r="V102" s="106">
+      <c r="V102" s="69">
         <v>2E-3</v>
       </c>
-      <c r="W102" s="107">
+      <c r="W102" s="70">
         <v>2E-3</v>
       </c>
-      <c r="X102" s="107">
+      <c r="X102" s="70">
         <v>2E-3</v>
       </c>
-      <c r="Y102" s="107">
+      <c r="Y102" s="70">
         <v>2E-3</v>
       </c>
       <c r="Z102" s="58"/>
@@ -8692,16 +8695,16 @@
       <c r="S103" s="45"/>
       <c r="T103" s="45"/>
       <c r="U103" s="46"/>
-      <c r="V103" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W103" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X103" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y103" s="107">
+      <c r="V103" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W103" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X103" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y103" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="Z103" s="58"/>
@@ -8752,16 +8755,16 @@
       <c r="S104" s="45"/>
       <c r="T104" s="45"/>
       <c r="U104" s="46"/>
-      <c r="V104" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W104" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X104" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y104" s="107">
+      <c r="V104" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W104" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X104" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y104" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="Z104" s="58"/>
@@ -8812,16 +8815,16 @@
       <c r="S105" s="45"/>
       <c r="T105" s="45"/>
       <c r="U105" s="46"/>
-      <c r="V105" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W105" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X105" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y105" s="107">
+      <c r="V105" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W105" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X105" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y105" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="Z105" s="58"/>
@@ -8876,16 +8879,16 @@
       <c r="S106" s="45"/>
       <c r="T106" s="45"/>
       <c r="U106" s="46"/>
-      <c r="V106" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W106" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X106" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y106" s="107">
+      <c r="V106" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W106" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X106" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y106" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="Z106" s="58"/>
@@ -8936,16 +8939,16 @@
       <c r="S107" s="45"/>
       <c r="T107" s="45"/>
       <c r="U107" s="46"/>
-      <c r="V107" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W107" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X107" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y107" s="107">
+      <c r="V107" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W107" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X107" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y107" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="Z107" s="58"/>
@@ -8996,16 +8999,16 @@
       <c r="S108" s="45"/>
       <c r="T108" s="45"/>
       <c r="U108" s="46"/>
-      <c r="V108" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W108" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X108" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y108" s="107">
+      <c r="V108" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W108" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X108" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y108" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="Z108" s="58"/>
@@ -9056,16 +9059,16 @@
       <c r="S109" s="45"/>
       <c r="T109" s="45"/>
       <c r="U109" s="46"/>
-      <c r="V109" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W109" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X109" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y109" s="107">
+      <c r="V109" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W109" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X109" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y109" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="Z109" s="58"/>
@@ -9116,16 +9119,16 @@
       <c r="S110" s="45"/>
       <c r="T110" s="45"/>
       <c r="U110" s="46"/>
-      <c r="V110" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W110" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X110" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y110" s="107">
+      <c r="V110" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W110" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X110" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y110" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="Z110" s="58"/>
@@ -9180,16 +9183,16 @@
       <c r="S111" s="45"/>
       <c r="T111" s="45"/>
       <c r="U111" s="46"/>
-      <c r="V111" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W111" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X111" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y111" s="107">
+      <c r="V111" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W111" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X111" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y111" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="Z111" s="58"/>
@@ -9240,16 +9243,16 @@
       <c r="S112" s="45"/>
       <c r="T112" s="45"/>
       <c r="U112" s="46"/>
-      <c r="V112" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W112" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X112" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y112" s="107">
+      <c r="V112" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W112" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X112" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y112" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="Z112" s="58"/>
@@ -9300,16 +9303,16 @@
       <c r="S113" s="45"/>
       <c r="T113" s="45"/>
       <c r="U113" s="46"/>
-      <c r="V113" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W113" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X113" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y113" s="107">
+      <c r="V113" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W113" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X113" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y113" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="Z113" s="58"/>
@@ -9360,16 +9363,16 @@
       <c r="S114" s="45"/>
       <c r="T114" s="45"/>
       <c r="U114" s="46"/>
-      <c r="V114" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="W114" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="X114" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="Y114" s="107">
+      <c r="V114" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="W114" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="X114" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="Y114" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="Z114" s="58"/>
@@ -9428,16 +9431,16 @@
       <c r="W115" s="59"/>
       <c r="X115" s="59"/>
       <c r="Y115" s="59"/>
-      <c r="Z115" s="108">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA115" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB115" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AC115" s="107">
+      <c r="Z115" s="71">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA115" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB115" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AC115" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="AD115" s="45"/>
@@ -9488,16 +9491,16 @@
       <c r="W116" s="59"/>
       <c r="X116" s="59"/>
       <c r="Y116" s="59"/>
-      <c r="Z116" s="108">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA116" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB116" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AC116" s="107">
+      <c r="Z116" s="71">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA116" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB116" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AC116" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="AD116" s="45"/>
@@ -9548,16 +9551,16 @@
       <c r="W117" s="59"/>
       <c r="X117" s="59"/>
       <c r="Y117" s="59"/>
-      <c r="Z117" s="108">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA117" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB117" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AC117" s="107">
+      <c r="Z117" s="71">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA117" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB117" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AC117" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="AD117" s="45"/>
@@ -9608,16 +9611,16 @@
       <c r="W118" s="59"/>
       <c r="X118" s="59"/>
       <c r="Y118" s="59"/>
-      <c r="Z118" s="108">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA118" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB118" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AC118" s="107">
+      <c r="Z118" s="71">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA118" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB118" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AC118" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="AD118" s="45"/>
@@ -9672,16 +9675,16 @@
       <c r="W119" s="59"/>
       <c r="X119" s="59"/>
       <c r="Y119" s="59"/>
-      <c r="Z119" s="108">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA119" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB119" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AC119" s="107">
+      <c r="Z119" s="71">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA119" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB119" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AC119" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="AD119" s="45"/>
@@ -9732,16 +9735,16 @@
       <c r="W120" s="59"/>
       <c r="X120" s="59"/>
       <c r="Y120" s="59"/>
-      <c r="Z120" s="108">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA120" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB120" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AC120" s="107">
+      <c r="Z120" s="71">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA120" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB120" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AC120" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="AD120" s="45"/>
@@ -9792,16 +9795,16 @@
       <c r="W121" s="59"/>
       <c r="X121" s="59"/>
       <c r="Y121" s="59"/>
-      <c r="Z121" s="108">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA121" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB121" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AC121" s="107">
+      <c r="Z121" s="71">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA121" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB121" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AC121" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="AD121" s="45"/>
@@ -9856,16 +9859,16 @@
       <c r="W122" s="59"/>
       <c r="X122" s="59"/>
       <c r="Y122" s="59"/>
-      <c r="Z122" s="108">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AA122" s="106">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AB122" s="107">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AC122" s="107">
+      <c r="Z122" s="71">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AA122" s="69">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AB122" s="70">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AC122" s="70">
         <v>1.5E-3</v>
       </c>
       <c r="AD122" s="45"/>
@@ -9920,10 +9923,10 @@
       <c r="W123" s="59"/>
       <c r="X123" s="59"/>
       <c r="Y123" s="59"/>
-      <c r="Z123" s="108">
+      <c r="Z123" s="71">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AA123" s="106">
+      <c r="AA123" s="69">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AB123" s="59"/>
@@ -9945,11 +9948,11 @@
       <c r="A124" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="B124" s="88" t="s">
+      <c r="B124" s="72" t="s">
         <v>301</v>
       </c>
-      <c r="C124" s="89"/>
-      <c r="D124" s="90"/>
+      <c r="C124" s="73"/>
+      <c r="D124" s="74"/>
       <c r="E124" s="55"/>
       <c r="F124" s="64">
         <f>SUM(F125)</f>
@@ -10030,25 +10033,25 @@
       <c r="AA125" s="44"/>
       <c r="AB125" s="45"/>
       <c r="AC125" s="45"/>
-      <c r="AD125" s="45">
+      <c r="AD125" s="49">
         <v>0.01</v>
       </c>
-      <c r="AE125" s="46">
+      <c r="AE125" s="65">
         <v>0.01</v>
       </c>
-      <c r="AF125" s="69">
+      <c r="AF125" s="108">
         <v>0.01</v>
       </c>
-      <c r="AG125" s="47">
+      <c r="AG125" s="109">
         <v>0.01</v>
       </c>
-      <c r="AH125" s="45">
+      <c r="AH125" s="49">
         <v>0.01</v>
       </c>
-      <c r="AI125" s="45">
+      <c r="AI125" s="49">
         <v>0.01</v>
       </c>
-      <c r="AJ125" s="46">
+      <c r="AJ125" s="65">
         <v>0.01</v>
       </c>
       <c r="AK125" s="47">
@@ -10065,11 +10068,11 @@
       <c r="A126" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="B126" s="88" t="s">
+      <c r="B126" s="72" t="s">
         <v>300</v>
       </c>
-      <c r="C126" s="89"/>
-      <c r="D126" s="90"/>
+      <c r="C126" s="73"/>
+      <c r="D126" s="74"/>
       <c r="E126" s="55"/>
       <c r="F126" s="64">
         <f>SUM(F127)</f>
@@ -10290,11 +10293,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G1:K1"/>
     <mergeCell ref="B126:D126"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="L1:P1"/>
@@ -10311,13 +10316,11 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="B1:D4"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B75:D75"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/my_primary_data/1조_wbs.xlsx
+++ b/my_primary_data/1조_wbs.xlsx
@@ -1862,7 +1862,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2079,6 +2079,66 @@
     <xf numFmtId="10" fontId="6" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2088,6 +2148,42 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2097,100 +2193,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2503,10 +2506,10 @@
   <dimension ref="A1:AP147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="AB92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D111" sqref="D111"/>
+      <selection pane="bottomRight" activeCell="BE109" sqref="BE109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2522,76 +2525,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="105" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="89" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="83" t="s">
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="83" t="s">
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="83" t="s">
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="83" t="s">
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="84"/>
-      <c r="AF1" s="89" t="s">
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="78"/>
+      <c r="AD1" s="78"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="91"/>
-      <c r="AK1" s="80" t="s">
+      <c r="AG1" s="104"/>
+      <c r="AH1" s="104"/>
+      <c r="AI1" s="104"/>
+      <c r="AJ1" s="105"/>
+      <c r="AK1" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="81"/>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="81"/>
-      <c r="AO1" s="82"/>
+      <c r="AL1" s="78"/>
+      <c r="AM1" s="78"/>
+      <c r="AN1" s="78"/>
+      <c r="AO1" s="96"/>
     </row>
     <row r="2" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="106"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="90"/>
       <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
@@ -2702,11 +2705,11 @@
       </c>
     </row>
     <row r="3" spans="1:42" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="94"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="106"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="90"/>
       <c r="F3" s="12" t="s">
         <v>1</v>
       </c>
@@ -2840,11 +2843,11 @@
       </c>
       <c r="AM3" s="13">
         <f t="shared" ref="AM3" si="30">AL3+AM4</f>
-        <v>0.99000000000000032</v>
+        <v>0.99500000000000033</v>
       </c>
       <c r="AN3" s="13">
         <f t="shared" ref="AN3" si="31">AM3+AN4</f>
-        <v>0.99500000000000033</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="AO3" s="17">
         <f>AN3+AO4</f>
@@ -2853,11 +2856,11 @@
       <c r="AP3" s="16"/>
     </row>
     <row r="4" spans="1:42" s="7" customFormat="1" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="95"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="107"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="91"/>
       <c r="F4" s="18" t="s">
         <v>2</v>
       </c>
@@ -2990,8 +2993,8 @@
         <v>0.01</v>
       </c>
       <c r="AM4" s="19">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f>SUM(AM5:AM127)</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AN4" s="19">
         <f t="shared" si="32"/>
@@ -2999,7 +3002,7 @@
       </c>
       <c r="AO4" s="21">
         <f t="shared" si="32"/>
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="16"/>
     </row>
@@ -3007,11 +3010,11 @@
       <c r="A5" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="100" t="s">
         <v>279</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="38"/>
       <c r="F5" s="61">
         <f>SUM(F6+F9+F15+F20+F26+F75+F124+F126)</f>
@@ -3057,11 +3060,11 @@
       <c r="A6" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="92" t="s">
         <v>271</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="74"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
       <c r="E6" s="34"/>
       <c r="F6" s="64">
         <f>SUM(F7:F8)</f>
@@ -3108,10 +3111,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="25"/>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="79"/>
+      <c r="D7" s="99"/>
       <c r="E7" s="34" t="s">
         <v>280</v>
       </c>
@@ -3164,10 +3167,10 @@
         <v>29</v>
       </c>
       <c r="B8" s="25"/>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="97" t="s">
         <v>278</v>
       </c>
-      <c r="D8" s="79"/>
+      <c r="D8" s="99"/>
       <c r="E8" s="34" t="s">
         <v>281</v>
       </c>
@@ -3221,11 +3224,11 @@
       <c r="A9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="92" t="s">
         <v>272</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="94"/>
       <c r="E9" s="34"/>
       <c r="F9" s="64">
         <f>SUM(F10:F14)</f>
@@ -3328,10 +3331,10 @@
         <v>187</v>
       </c>
       <c r="B11" s="25"/>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="79"/>
+      <c r="D11" s="99"/>
       <c r="E11" s="34" t="s">
         <v>281</v>
       </c>
@@ -3553,11 +3556,11 @@
       <c r="A15" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="92" t="s">
         <v>273</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="94"/>
       <c r="E15" s="55"/>
       <c r="F15" s="64">
         <f>SUM(F16:F19)</f>
@@ -3604,10 +3607,10 @@
         <v>32</v>
       </c>
       <c r="B16" s="29"/>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="85"/>
+      <c r="D16" s="98"/>
       <c r="E16" s="55" t="s">
         <v>280</v>
       </c>
@@ -3658,10 +3661,10 @@
         <v>135</v>
       </c>
       <c r="B17" s="29"/>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="85"/>
+      <c r="D17" s="98"/>
       <c r="E17" s="55" t="s">
         <v>281</v>
       </c>
@@ -3712,10 +3715,10 @@
         <v>270</v>
       </c>
       <c r="B18" s="25"/>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="97" t="s">
         <v>277</v>
       </c>
-      <c r="D18" s="79"/>
+      <c r="D18" s="99"/>
       <c r="E18" s="55" t="s">
         <v>280</v>
       </c>
@@ -3772,10 +3775,10 @@
         <v>269</v>
       </c>
       <c r="B19" s="25"/>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="79"/>
+      <c r="D19" s="99"/>
       <c r="E19" s="55" t="s">
         <v>281</v>
       </c>
@@ -3825,11 +3828,11 @@
       <c r="A20" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="77"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="109"/>
       <c r="E20" s="55"/>
       <c r="F20" s="64">
         <f>SUM(F21:F25)</f>
@@ -3876,10 +3879,10 @@
         <v>61</v>
       </c>
       <c r="B21" s="25"/>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="92"/>
+      <c r="D21" s="106"/>
       <c r="E21" s="55" t="s">
         <v>92</v>
       </c>
@@ -3934,10 +3937,10 @@
         <v>62</v>
       </c>
       <c r="B22" s="25"/>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="79"/>
+      <c r="D22" s="99"/>
       <c r="E22" s="55" t="s">
         <v>92</v>
       </c>
@@ -4165,11 +4168,11 @@
       <c r="A26" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="72" t="s">
+      <c r="B26" s="92" t="s">
         <v>276</v>
       </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="74"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="94"/>
       <c r="E26" s="55"/>
       <c r="F26" s="64">
         <f>SUM(F27:F74)</f>
@@ -6966,11 +6969,11 @@
       <c r="A75" s="27" t="s">
         <v>229</v>
       </c>
-      <c r="B75" s="72" t="s">
+      <c r="B75" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="C75" s="73"/>
-      <c r="D75" s="74"/>
+      <c r="C75" s="93"/>
+      <c r="D75" s="94"/>
       <c r="E75" s="55"/>
       <c r="F75" s="64">
         <f>SUM(F76:F123)</f>
@@ -9948,11 +9951,11 @@
       <c r="A124" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="B124" s="72" t="s">
+      <c r="B124" s="92" t="s">
         <v>301</v>
       </c>
-      <c r="C124" s="73"/>
-      <c r="D124" s="74"/>
+      <c r="C124" s="93"/>
+      <c r="D124" s="94"/>
       <c r="E124" s="55"/>
       <c r="F124" s="64">
         <f>SUM(F125)</f>
@@ -10039,10 +10042,10 @@
       <c r="AE125" s="65">
         <v>0.01</v>
       </c>
-      <c r="AF125" s="108">
+      <c r="AF125" s="72">
         <v>0.01</v>
       </c>
-      <c r="AG125" s="109">
+      <c r="AG125" s="73">
         <v>0.01</v>
       </c>
       <c r="AH125" s="49">
@@ -10054,10 +10057,10 @@
       <c r="AJ125" s="65">
         <v>0.01</v>
       </c>
-      <c r="AK125" s="47">
+      <c r="AK125" s="73">
         <v>0.01</v>
       </c>
-      <c r="AL125" s="45">
+      <c r="AL125" s="49">
         <v>0.01</v>
       </c>
       <c r="AM125" s="45"/>
@@ -10068,11 +10071,11 @@
       <c r="A126" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="B126" s="72" t="s">
+      <c r="B126" s="92" t="s">
         <v>300</v>
       </c>
-      <c r="C126" s="73"/>
-      <c r="D126" s="74"/>
+      <c r="C126" s="93"/>
+      <c r="D126" s="94"/>
       <c r="E126" s="55"/>
       <c r="F126" s="64">
         <f>SUM(F127)</f>
@@ -10162,13 +10165,13 @@
       <c r="AJ127" s="53"/>
       <c r="AK127" s="54"/>
       <c r="AL127" s="52"/>
-      <c r="AM127" s="52"/>
-      <c r="AN127" s="52">
+      <c r="AM127" s="110">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AO127" s="53">
+      <c r="AN127" s="110">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="AO127" s="53"/>
     </row>
     <row r="128" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A128" s="23"/>
@@ -10293,13 +10296,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="B1:D4"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B75:D75"/>
     <mergeCell ref="B126:D126"/>
     <mergeCell ref="AK1:AO1"/>
     <mergeCell ref="L1:P1"/>
@@ -10316,11 +10317,13 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
